--- a/word_features/半年/CHA,2021-7~2021-12,主题_词矩阵.xlsx
+++ b/word_features/半年/CHA,2021-7~2021-12,主题_词矩阵.xlsx
@@ -14,606 +14,1206 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+  <si>
+    <t>一剂</t>
+  </si>
   <si>
     <t>一带</t>
   </si>
   <si>
-    <t>一等奖</t>
-  </si>
-  <si>
-    <t>上观</t>
-  </si>
-  <si>
-    <t>专委会</t>
-  </si>
-  <si>
-    <t>专题</t>
-  </si>
-  <si>
-    <t>专题报道</t>
+    <t>万剂</t>
+  </si>
+  <si>
+    <t>专家</t>
+  </si>
+  <si>
+    <t>世卫</t>
   </si>
   <si>
     <t>世界</t>
   </si>
   <si>
-    <t>中央</t>
-  </si>
-  <si>
-    <t>中杰</t>
+    <t>世纪</t>
+  </si>
+  <si>
+    <t>东盟国家</t>
+  </si>
+  <si>
+    <t>两剂</t>
+  </si>
+  <si>
+    <t>两国人民</t>
+  </si>
+  <si>
+    <t>两极分化</t>
+  </si>
+  <si>
+    <t>临床试验</t>
   </si>
   <si>
     <t>主义</t>
   </si>
   <si>
-    <t>主创</t>
-  </si>
-  <si>
     <t>主席</t>
   </si>
   <si>
-    <t>义风</t>
-  </si>
-  <si>
-    <t>人才</t>
-  </si>
-  <si>
-    <t>人泪</t>
+    <t>主席国</t>
+  </si>
+  <si>
+    <t>主张</t>
+  </si>
+  <si>
+    <t>主政</t>
+  </si>
+  <si>
+    <t>主旨</t>
+  </si>
+  <si>
+    <t>主权</t>
+  </si>
+  <si>
+    <t>乌方</t>
+  </si>
+  <si>
+    <t>书面</t>
+  </si>
+  <si>
+    <t>二妹</t>
+  </si>
+  <si>
+    <t>互利</t>
+  </si>
+  <si>
+    <t>亚太经济</t>
+  </si>
+  <si>
+    <t>交流</t>
+  </si>
+  <si>
+    <t>交织</t>
+  </si>
+  <si>
+    <t>产业</t>
+  </si>
+  <si>
+    <t>产业链</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>人员</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>人文</t>
+  </si>
+  <si>
+    <t>人权</t>
+  </si>
+  <si>
+    <t>人民</t>
   </si>
   <si>
     <t>人类</t>
   </si>
   <si>
+    <t>人群</t>
+  </si>
+  <si>
     <t>企业</t>
   </si>
   <si>
-    <t>优棉</t>
-  </si>
-  <si>
-    <t>传媒</t>
-  </si>
-  <si>
-    <t>传媒大学</t>
-  </si>
-  <si>
-    <t>传学</t>
-  </si>
-  <si>
-    <t>传播学</t>
-  </si>
-  <si>
-    <t>作者</t>
-  </si>
-  <si>
-    <t>保函</t>
+    <t>伙伴</t>
+  </si>
+  <si>
+    <t>伙伴关系</t>
+  </si>
+  <si>
+    <t>会议</t>
+  </si>
+  <si>
+    <t>伟大成就</t>
+  </si>
+  <si>
+    <t>传染性</t>
+  </si>
+  <si>
+    <t>传染病</t>
+  </si>
+  <si>
+    <t>住院</t>
+  </si>
+  <si>
+    <t>体制</t>
+  </si>
+  <si>
+    <t>体系</t>
+  </si>
+  <si>
+    <t>作出贡献</t>
+  </si>
+  <si>
+    <t>供应链</t>
+  </si>
+  <si>
+    <t>供货</t>
+  </si>
+  <si>
+    <t>保护主义</t>
+  </si>
+  <si>
+    <t>保护率</t>
+  </si>
+  <si>
+    <t>信号</t>
+  </si>
+  <si>
+    <t>信心</t>
   </si>
   <si>
     <t>倡议</t>
   </si>
   <si>
-    <t>先锋网</t>
-  </si>
-  <si>
-    <t>光明网</t>
+    <t>儿童</t>
+  </si>
+  <si>
+    <t>免疫力</t>
+  </si>
+  <si>
+    <t>党员</t>
+  </si>
+  <si>
+    <t>党派</t>
+  </si>
+  <si>
+    <t>全人类</t>
+  </si>
+  <si>
+    <t>全员</t>
   </si>
   <si>
     <t>全球</t>
   </si>
   <si>
-    <t>共件</t>
+    <t>全球化</t>
+  </si>
+  <si>
+    <t>全球性</t>
+  </si>
+  <si>
+    <t>全程</t>
+  </si>
+  <si>
+    <t>全面</t>
+  </si>
+  <si>
+    <t>公平</t>
+  </si>
+  <si>
+    <t>公平合理</t>
+  </si>
+  <si>
+    <t>公平正义</t>
+  </si>
+  <si>
+    <t>公约</t>
+  </si>
+  <si>
+    <t>共克</t>
+  </si>
+  <si>
+    <t>共创</t>
   </si>
   <si>
     <t>共同体</t>
   </si>
   <si>
-    <t>军网</t>
-  </si>
-  <si>
-    <t>冷程</t>
-  </si>
-  <si>
-    <t>副刊</t>
-  </si>
-  <si>
-    <t>勤王</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>单娟</t>
+    <t>共同利益</t>
+  </si>
+  <si>
+    <t>共商</t>
+  </si>
+  <si>
+    <t>共生</t>
+  </si>
+  <si>
+    <t>共识</t>
+  </si>
+  <si>
+    <t>共谋</t>
+  </si>
+  <si>
+    <t>关系</t>
+  </si>
+  <si>
+    <t>典范</t>
+  </si>
+  <si>
+    <t>内政</t>
+  </si>
+  <si>
+    <t>内用</t>
+  </si>
+  <si>
+    <t>内需</t>
+  </si>
+  <si>
+    <t>分歧</t>
+  </si>
+  <si>
+    <t>利益</t>
+  </si>
+  <si>
+    <t>制造业</t>
+  </si>
+  <si>
+    <t>剂次</t>
+  </si>
+  <si>
+    <t>剂量</t>
+  </si>
+  <si>
+    <t>前景</t>
+  </si>
+  <si>
+    <t>前途</t>
+  </si>
+  <si>
+    <t>副作用</t>
+  </si>
+  <si>
+    <t>动力</t>
+  </si>
+  <si>
+    <t>动能</t>
+  </si>
+  <si>
+    <t>势力</t>
+  </si>
+  <si>
+    <t>包容性</t>
+  </si>
+  <si>
+    <t>区域合作</t>
+  </si>
+  <si>
+    <t>区间</t>
+  </si>
+  <si>
+    <t>医疗系统</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>协议</t>
+  </si>
+  <si>
+    <t>单日</t>
+  </si>
+  <si>
+    <t>单边主义</t>
   </si>
   <si>
     <t>博会</t>
   </si>
   <si>
-    <t>卫视</t>
+    <t>博览会</t>
+  </si>
+  <si>
+    <t>卫生部长</t>
+  </si>
+  <si>
+    <t>卫生部门</t>
+  </si>
+  <si>
+    <t>危机</t>
   </si>
   <si>
     <t>历史</t>
   </si>
   <si>
-    <t>原宝</t>
-  </si>
-  <si>
-    <t>参考报</t>
-  </si>
-  <si>
-    <t>合村</t>
-  </si>
-  <si>
-    <t>名专栏</t>
+    <t>历史性</t>
+  </si>
+  <si>
+    <t>原液</t>
+  </si>
+  <si>
+    <t>参展商</t>
+  </si>
+  <si>
+    <t>双方</t>
+  </si>
+  <si>
+    <t>双边</t>
+  </si>
+  <si>
+    <t>双边关系</t>
+  </si>
+  <si>
+    <t>发展潜力</t>
+  </si>
+  <si>
+    <t>发生率</t>
+  </si>
+  <si>
+    <t>发病率</t>
+  </si>
+  <si>
+    <t>变局</t>
+  </si>
+  <si>
+    <t>变异</t>
+  </si>
+  <si>
+    <t>变种</t>
+  </si>
+  <si>
+    <t>叙方</t>
+  </si>
+  <si>
+    <t>口罩</t>
+  </si>
+  <si>
+    <t>右图</t>
+  </si>
+  <si>
+    <t>合作伙伴</t>
+  </si>
+  <si>
+    <t>合作项目</t>
+  </si>
+  <si>
+    <t>合法席位</t>
+  </si>
+  <si>
+    <t>同意书</t>
+  </si>
+  <si>
+    <t>周年纪念</t>
+  </si>
+  <si>
+    <t>周报</t>
   </si>
   <si>
     <t>命运</t>
   </si>
   <si>
-    <t>四度空间</t>
-  </si>
-  <si>
-    <t>围湖</t>
+    <t>唯一标准</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>团结合作</t>
+  </si>
+  <si>
+    <t>国债</t>
   </si>
   <si>
     <t>国家</t>
   </si>
   <si>
+    <t>国情</t>
+  </si>
+  <si>
+    <t>国药</t>
+  </si>
+  <si>
     <t>国际</t>
   </si>
   <si>
-    <t>图图</t>
-  </si>
-  <si>
-    <t>圈景</t>
-  </si>
-  <si>
-    <t>圩堤</t>
-  </si>
-  <si>
-    <t>城事</t>
-  </si>
-  <si>
-    <t>声动</t>
-  </si>
-  <si>
-    <t>夜宿</t>
-  </si>
-  <si>
-    <t>大功</t>
-  </si>
-  <si>
-    <t>天团</t>
-  </si>
-  <si>
-    <t>奖次</t>
-  </si>
-  <si>
-    <t>女医生</t>
-  </si>
-  <si>
-    <t>姐弟俩</t>
-  </si>
-  <si>
-    <t>婕妤</t>
-  </si>
-  <si>
-    <t>媒体</t>
-  </si>
-  <si>
-    <t>子车</t>
-  </si>
-  <si>
-    <t>学农</t>
-  </si>
-  <si>
-    <t>学刊</t>
-  </si>
-  <si>
-    <t>学术前沿</t>
-  </si>
-  <si>
-    <t>学院奖</t>
-  </si>
-  <si>
-    <t>守城</t>
-  </si>
-  <si>
-    <t>小容</t>
-  </si>
-  <si>
-    <t>小民</t>
-  </si>
-  <si>
-    <t>小药</t>
-  </si>
-  <si>
-    <t>少林</t>
-  </si>
-  <si>
-    <t>局奖</t>
-  </si>
-  <si>
-    <t>屋脊</t>
-  </si>
-  <si>
-    <t>岩洞</t>
+    <t>国际事务</t>
+  </si>
+  <si>
+    <t>国际形势</t>
+  </si>
+  <si>
+    <t>国际法</t>
+  </si>
+  <si>
+    <t>地位</t>
+  </si>
+  <si>
+    <t>地球</t>
+  </si>
+  <si>
+    <t>基本准则</t>
+  </si>
+  <si>
+    <t>基础设施</t>
+  </si>
+  <si>
+    <t>基金</t>
+  </si>
+  <si>
+    <t>增加值</t>
+  </si>
+  <si>
+    <t>外交</t>
+  </si>
+  <si>
+    <t>外贸</t>
+  </si>
+  <si>
+    <t>外资</t>
+  </si>
+  <si>
+    <t>外资企业</t>
+  </si>
+  <si>
+    <t>外长</t>
+  </si>
+  <si>
+    <t>大会</t>
+  </si>
+  <si>
+    <t>大势</t>
+  </si>
+  <si>
+    <t>大变局</t>
+  </si>
+  <si>
+    <t>女士们</t>
+  </si>
+  <si>
+    <t>委员长</t>
+  </si>
+  <si>
+    <t>委疾控局</t>
+  </si>
+  <si>
+    <t>媒体报道</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>宏观政策</t>
+  </si>
+  <si>
+    <t>宏观经济</t>
+  </si>
+  <si>
+    <t>宗旨</t>
+  </si>
+  <si>
+    <t>定力</t>
+  </si>
+  <si>
+    <t>宪章</t>
+  </si>
+  <si>
+    <t>对话</t>
+  </si>
+  <si>
+    <t>尊重事实</t>
+  </si>
+  <si>
+    <t>小区</t>
+  </si>
+  <si>
+    <t>小康社会</t>
+  </si>
+  <si>
+    <t>小时</t>
+  </si>
+  <si>
+    <t>局势</t>
+  </si>
+  <si>
+    <t>居民</t>
+  </si>
+  <si>
+    <t>展区</t>
+  </si>
+  <si>
+    <t>展品</t>
+  </si>
+  <si>
+    <t>山火</t>
+  </si>
+  <si>
+    <t>岛国</t>
   </si>
   <si>
     <t>峰会</t>
   </si>
   <si>
-    <t>工作部</t>
-  </si>
-  <si>
-    <t>差评</t>
-  </si>
-  <si>
-    <t>平措</t>
-  </si>
-  <si>
-    <t>幼崽</t>
-  </si>
-  <si>
-    <t>开庭</t>
-  </si>
-  <si>
-    <t>影视</t>
-  </si>
-  <si>
-    <t>志工</t>
-  </si>
-  <si>
-    <t>志民</t>
-  </si>
-  <si>
-    <t>思思</t>
+    <t>工业</t>
+  </si>
+  <si>
+    <t>工作人员</t>
+  </si>
+  <si>
+    <t>工商</t>
+  </si>
+  <si>
+    <t>工商界</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>市场准入</t>
+  </si>
+  <si>
+    <t>干扰素</t>
+  </si>
+  <si>
+    <t>年龄段</t>
+  </si>
+  <si>
+    <t>年龄组</t>
+  </si>
+  <si>
+    <t>建议</t>
+  </si>
+  <si>
+    <t>建设性</t>
+  </si>
+  <si>
+    <t>开局</t>
+  </si>
+  <si>
+    <t>开幕式</t>
+  </si>
+  <si>
+    <t>引擎</t>
+  </si>
+  <si>
+    <t>强权政治</t>
+  </si>
+  <si>
+    <t>当局</t>
+  </si>
+  <si>
+    <t>征程</t>
+  </si>
+  <si>
+    <t>心因</t>
+  </si>
+  <si>
+    <t>志愿者</t>
+  </si>
+  <si>
+    <t>性反应</t>
   </si>
   <si>
     <t>总书记</t>
   </si>
   <si>
+    <t>总人口</t>
+  </si>
+  <si>
     <t>总台</t>
   </si>
   <si>
-    <t>恒业</t>
-  </si>
-  <si>
-    <t>情书</t>
-  </si>
-  <si>
-    <t>懒政</t>
-  </si>
-  <si>
-    <t>成峰</t>
-  </si>
-  <si>
-    <t>成文</t>
-  </si>
-  <si>
-    <t>战报</t>
-  </si>
-  <si>
-    <t>战疫纪</t>
-  </si>
-  <si>
-    <t>战线</t>
-  </si>
-  <si>
-    <t>护鸟</t>
-  </si>
-  <si>
-    <t>报业</t>
-  </si>
-  <si>
-    <t>报纸</t>
-  </si>
-  <si>
-    <t>拐杖</t>
-  </si>
-  <si>
-    <t>挖空</t>
-  </si>
-  <si>
-    <t>摄影</t>
+    <t>总理</t>
+  </si>
+  <si>
+    <t>总统</t>
+  </si>
+  <si>
+    <t>总裁</t>
+  </si>
+  <si>
+    <t>恐怖主义</t>
+  </si>
+  <si>
+    <t>感染率</t>
+  </si>
+  <si>
+    <t>成人</t>
+  </si>
+  <si>
+    <t>成员国</t>
+  </si>
+  <si>
+    <t>成就</t>
+  </si>
+  <si>
+    <t>成年人</t>
+  </si>
+  <si>
+    <t>成果</t>
+  </si>
+  <si>
+    <t>战书</t>
+  </si>
+  <si>
+    <t>战略</t>
+  </si>
+  <si>
+    <t>战略伙伴</t>
+  </si>
+  <si>
+    <t>战胜</t>
+  </si>
+  <si>
+    <t>投资者</t>
+  </si>
+  <si>
+    <t>抗体</t>
+  </si>
+  <si>
+    <t>报告</t>
+  </si>
+  <si>
+    <t>持久和平</t>
+  </si>
+  <si>
+    <t>指挥部</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>措施</t>
+  </si>
+  <si>
+    <t>提供者</t>
+  </si>
+  <si>
+    <t>支柱</t>
+  </si>
+  <si>
+    <t>攻关组</t>
+  </si>
+  <si>
+    <t>政党</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>政策</t>
+  </si>
+  <si>
+    <t>效力</t>
+  </si>
+  <si>
+    <t>效应</t>
+  </si>
+  <si>
+    <t>效果</t>
   </si>
   <si>
     <t>数字</t>
   </si>
   <si>
-    <t>文字</t>
-  </si>
-  <si>
-    <t>新闻界</t>
-  </si>
-  <si>
-    <t>新闻节目</t>
-  </si>
-  <si>
-    <t>方益</t>
-  </si>
-  <si>
-    <t>日报</t>
-  </si>
-  <si>
-    <t>日记</t>
+    <t>数字化</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>新冠</t>
+  </si>
+  <si>
+    <t>新机遇</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>旅客</t>
+  </si>
+  <si>
+    <t>日益</t>
   </si>
   <si>
     <t>时代</t>
   </si>
   <si>
-    <t>春行</t>
-  </si>
-  <si>
-    <t>晚报</t>
-  </si>
-  <si>
-    <t>晚间新闻</t>
-  </si>
-  <si>
-    <t>月面</t>
-  </si>
-  <si>
-    <t>李淑</t>
-  </si>
-  <si>
-    <t>村因</t>
-  </si>
-  <si>
-    <t>果果</t>
+    <t>时艰</t>
+  </si>
+  <si>
+    <t>晶晶</t>
+  </si>
+  <si>
+    <t>智库</t>
+  </si>
+  <si>
+    <t>有效性</t>
+  </si>
+  <si>
+    <t>服务业</t>
+  </si>
+  <si>
+    <t>服贸</t>
+  </si>
+  <si>
+    <t>服贸会</t>
+  </si>
+  <si>
+    <t>机场</t>
+  </si>
+  <si>
+    <t>机遇</t>
+  </si>
+  <si>
+    <t>条约</t>
+  </si>
+  <si>
+    <t>核心</t>
+  </si>
+  <si>
+    <t>核酸</t>
   </si>
   <si>
     <t>格局</t>
   </si>
   <si>
-    <t>梅焰</t>
-  </si>
-  <si>
-    <t>棉棉</t>
-  </si>
-  <si>
-    <t>楼体</t>
-  </si>
-  <si>
-    <t>殉国</t>
-  </si>
-  <si>
-    <t>水龙</t>
-  </si>
-  <si>
-    <t>泳国</t>
-  </si>
-  <si>
-    <t>海峰</t>
-  </si>
-  <si>
-    <t>消息</t>
-  </si>
-  <si>
-    <t>添丁</t>
-  </si>
-  <si>
-    <t>温力</t>
-  </si>
-  <si>
-    <t>港云</t>
-  </si>
-  <si>
-    <t>漫画</t>
-  </si>
-  <si>
-    <t>瀚海</t>
-  </si>
-  <si>
-    <t>火龙</t>
-  </si>
-  <si>
-    <t>版面</t>
-  </si>
-  <si>
-    <t>牛倌</t>
-  </si>
-  <si>
-    <t>特派记者</t>
-  </si>
-  <si>
-    <t>猎者</t>
-  </si>
-  <si>
-    <t>猿家</t>
-  </si>
-  <si>
-    <t>现场报道</t>
-  </si>
-  <si>
-    <t>现场直播</t>
-  </si>
-  <si>
-    <t>电视</t>
-  </si>
-  <si>
-    <t>电视台</t>
-  </si>
-  <si>
-    <t>电视新闻</t>
-  </si>
-  <si>
-    <t>界面设计</t>
-  </si>
-  <si>
-    <t>白头</t>
-  </si>
-  <si>
-    <t>盐池</t>
-  </si>
-  <si>
-    <t>知音</t>
-  </si>
-  <si>
-    <t>石墨</t>
-  </si>
-  <si>
-    <t>研究会</t>
-  </si>
-  <si>
-    <t>种瓜</t>
+    <t>框架</t>
+  </si>
+  <si>
+    <t>正确方向</t>
+  </si>
+  <si>
+    <t>死亡率</t>
+  </si>
+  <si>
+    <t>毒株</t>
+  </si>
+  <si>
+    <t>比重</t>
+  </si>
+  <si>
+    <t>民主自由</t>
+  </si>
+  <si>
+    <t>民众</t>
+  </si>
+  <si>
+    <t>民族主义</t>
+  </si>
+  <si>
+    <t>民生</t>
+  </si>
+  <si>
+    <t>气候</t>
+  </si>
+  <si>
+    <t>气候变化</t>
+  </si>
+  <si>
+    <t>气变</t>
+  </si>
+  <si>
+    <t>氧气</t>
+  </si>
+  <si>
+    <t>水平</t>
+  </si>
+  <si>
+    <t>水资源</t>
+  </si>
+  <si>
+    <t>法方</t>
+  </si>
+  <si>
+    <t>活力</t>
+  </si>
+  <si>
+    <t>活疫苗</t>
+  </si>
+  <si>
+    <t>流感</t>
+  </si>
+  <si>
+    <t>流感疫苗</t>
+  </si>
+  <si>
+    <t>游客</t>
+  </si>
+  <si>
+    <t>潜力</t>
+  </si>
+  <si>
+    <t>潮流</t>
+  </si>
+  <si>
+    <t>瀑布</t>
+  </si>
+  <si>
+    <t>特稿</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>环境治理</t>
+  </si>
+  <si>
+    <t>现场</t>
+  </si>
+  <si>
+    <t>班列</t>
+  </si>
+  <si>
+    <t>理念</t>
+  </si>
+  <si>
+    <t>理政</t>
+  </si>
+  <si>
+    <t>生产力</t>
+  </si>
+  <si>
+    <t>生产总值</t>
+  </si>
+  <si>
+    <t>生态</t>
+  </si>
+  <si>
+    <t>生效</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>生物制品</t>
+  </si>
+  <si>
+    <t>申请加入</t>
+  </si>
+  <si>
+    <t>疫后</t>
+  </si>
+  <si>
+    <t>疫控</t>
+  </si>
+  <si>
+    <t>疫苗</t>
+  </si>
+  <si>
+    <t>疾控中心</t>
+  </si>
+  <si>
+    <t>疾控局</t>
+  </si>
+  <si>
+    <t>疾病</t>
+  </si>
+  <si>
+    <t>病例</t>
+  </si>
+  <si>
+    <t>病根</t>
+  </si>
+  <si>
+    <t>病毒</t>
+  </si>
+  <si>
+    <t>病毒传播</t>
+  </si>
+  <si>
+    <t>病毒感染</t>
+  </si>
+  <si>
+    <t>病毒检测</t>
+  </si>
+  <si>
+    <t>监护人</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>知情</t>
+  </si>
+  <si>
+    <t>研究所</t>
+  </si>
+  <si>
+    <t>磁力</t>
+  </si>
+  <si>
+    <t>社交</t>
+  </si>
+  <si>
+    <t>社会</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>社区</t>
+  </si>
+  <si>
+    <t>种者</t>
   </si>
   <si>
     <t>科技</t>
   </si>
   <si>
-    <t>空奖</t>
-  </si>
-  <si>
-    <t>突发性</t>
-  </si>
-  <si>
-    <t>系列报道</t>
-  </si>
-  <si>
-    <t>红臣</t>
-  </si>
-  <si>
-    <t>级海</t>
-  </si>
-  <si>
-    <t>纪事</t>
-  </si>
-  <si>
-    <t>纪略</t>
+    <t>科研</t>
+  </si>
+  <si>
+    <t>秘书长</t>
+  </si>
+  <si>
+    <t>稳定性</t>
+  </si>
+  <si>
+    <t>立场</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>细胞</t>
   </si>
   <si>
     <t>经济</t>
   </si>
   <si>
-    <t>经济日报</t>
-  </si>
-  <si>
-    <t>绿染</t>
+    <t>经济体</t>
+  </si>
+  <si>
+    <t>经济学家</t>
+  </si>
+  <si>
+    <t>经济带</t>
+  </si>
+  <si>
+    <t>经济社会</t>
+  </si>
+  <si>
+    <t>经贸</t>
+  </si>
+  <si>
+    <t>经验交流</t>
+  </si>
+  <si>
+    <t>结构性</t>
+  </si>
+  <si>
+    <t>统计数据</t>
+  </si>
+  <si>
+    <t>维护者</t>
   </si>
   <si>
     <t>绿色</t>
   </si>
   <si>
-    <t>网信</t>
-  </si>
-  <si>
-    <t>网络新闻</t>
-  </si>
-  <si>
-    <t>群只</t>
-  </si>
-  <si>
-    <t>群芳</t>
-  </si>
-  <si>
-    <t>胡程</t>
-  </si>
-  <si>
-    <t>艳红</t>
-  </si>
-  <si>
-    <t>艳霞</t>
-  </si>
-  <si>
-    <t>节目</t>
-  </si>
-  <si>
-    <t>芒果</t>
-  </si>
-  <si>
-    <t>范士</t>
-  </si>
-  <si>
-    <t>行健</t>
-  </si>
-  <si>
-    <t>西游记</t>
-  </si>
-  <si>
-    <t>要闻</t>
+    <t>缔约方</t>
+  </si>
+  <si>
+    <t>群众</t>
+  </si>
+  <si>
+    <t>群体</t>
+  </si>
+  <si>
+    <t>老年人</t>
+  </si>
+  <si>
+    <t>耐受性</t>
+  </si>
+  <si>
+    <t>联邦</t>
+  </si>
+  <si>
+    <t>背景</t>
+  </si>
+  <si>
+    <t>胸怀</t>
+  </si>
+  <si>
+    <t>能源</t>
+  </si>
+  <si>
+    <t>腺病毒</t>
+  </si>
+  <si>
+    <t>致力于</t>
+  </si>
+  <si>
+    <t>航运业</t>
+  </si>
+  <si>
+    <t>药物</t>
+  </si>
+  <si>
+    <t>营商</t>
+  </si>
+  <si>
+    <t>蛋白</t>
+  </si>
+  <si>
+    <t>街道</t>
+  </si>
+  <si>
+    <t>覆盖率</t>
+  </si>
+  <si>
+    <t>规则</t>
   </si>
   <si>
     <t>视频</t>
   </si>
   <si>
-    <t>记疫</t>
-  </si>
-  <si>
-    <t>评论</t>
-  </si>
-  <si>
-    <t>译文</t>
-  </si>
-  <si>
-    <t>译语</t>
-  </si>
-  <si>
-    <t>豆豆</t>
-  </si>
-  <si>
-    <t>走村</t>
-  </si>
-  <si>
-    <t>车夫</t>
-  </si>
-  <si>
-    <t>轶洁</t>
-  </si>
-  <si>
-    <t>退票费</t>
-  </si>
-  <si>
-    <t>部奖</t>
-  </si>
-  <si>
-    <t>酥油茶</t>
+    <t>议会</t>
+  </si>
+  <si>
+    <t>议程</t>
+  </si>
+  <si>
+    <t>议长</t>
+  </si>
+  <si>
+    <t>议题</t>
+  </si>
+  <si>
+    <t>讲话</t>
+  </si>
+  <si>
+    <t>论坛</t>
+  </si>
+  <si>
+    <t>论证</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
+    <t>试验区</t>
+  </si>
+  <si>
+    <t>负面</t>
+  </si>
+  <si>
+    <t>贡献</t>
+  </si>
+  <si>
+    <t>货币政策</t>
+  </si>
+  <si>
+    <t>贸易额</t>
+  </si>
+  <si>
+    <t>资生堂</t>
+  </si>
+  <si>
+    <t>赤字</t>
+  </si>
+  <si>
+    <t>跨国企业</t>
+  </si>
+  <si>
+    <t>跨国公司</t>
+  </si>
+  <si>
+    <t>跨境</t>
+  </si>
+  <si>
+    <t>路透社</t>
+  </si>
+  <si>
+    <t>转型</t>
+  </si>
+  <si>
+    <t>载体</t>
+  </si>
+  <si>
+    <t>辩论</t>
+  </si>
+  <si>
+    <t>过敏症</t>
+  </si>
+  <si>
+    <t>运动员</t>
+  </si>
+  <si>
+    <t>进口商品</t>
+  </si>
+  <si>
+    <t>进程</t>
+  </si>
+  <si>
+    <t>适龄</t>
+  </si>
+  <si>
+    <t>逆流</t>
+  </si>
+  <si>
+    <t>道路</t>
+  </si>
+  <si>
+    <t>邻国</t>
+  </si>
+  <si>
+    <t>重大贡献</t>
+  </si>
+  <si>
+    <t>重症</t>
   </si>
   <si>
     <t>金砖</t>
   </si>
   <si>
-    <t>锅台</t>
-  </si>
-  <si>
-    <t>长臂猿</t>
-  </si>
-  <si>
-    <t>阳葵</t>
-  </si>
-  <si>
-    <t>集体</t>
-  </si>
-  <si>
-    <t>音缘</t>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>金融市场</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>间隔</t>
+  </si>
+  <si>
+    <t>阳性率</t>
+  </si>
+  <si>
+    <t>霸权主义</t>
+  </si>
+  <si>
+    <t>韧性</t>
   </si>
   <si>
     <t>项目</t>
   </si>
   <si>
+    <t>预防接种</t>
+  </si>
+  <si>
     <t>领域</t>
   </si>
   <si>
     <t>领导人</t>
   </si>
   <si>
-    <t>题目</t>
-  </si>
-  <si>
-    <t>首长</t>
-  </si>
-  <si>
-    <t>驿道</t>
-  </si>
-  <si>
-    <t>高工</t>
-  </si>
-  <si>
-    <t>高程</t>
-  </si>
-  <si>
-    <t>麻麻</t>
-  </si>
-  <si>
-    <t>黄金时间</t>
+    <t>首针</t>
+  </si>
+  <si>
+    <t>高层</t>
+  </si>
+  <si>
+    <t>高度评价</t>
+  </si>
+  <si>
+    <t>高技术</t>
+  </si>
+  <si>
+    <t>高质量</t>
+  </si>
+  <si>
+    <t>鸿沟</t>
   </si>
   <si>
     <t>主题1</t>
@@ -980,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS4"/>
+  <dimension ref="A1:OK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:401">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,1820 +2187,4220 @@
       <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="2" spans="1:201">
+    <row r="2" spans="1:401">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B2">
-        <v>759.2471305052612</v>
+        <v>0.3384922444764936</v>
       </c>
       <c r="C2">
-        <v>0.339084133624675</v>
+        <v>0.3382718012726101</v>
       </c>
       <c r="D2">
-        <v>0.3333336459435783</v>
+        <v>0.3349694368873126</v>
       </c>
       <c r="E2">
-        <v>0.3729335748514063</v>
+        <v>7.908606912063257</v>
       </c>
       <c r="F2">
-        <v>5.475518814466039</v>
+        <v>0.3362632747298632</v>
       </c>
       <c r="G2">
-        <v>0.3378714143916967</v>
+        <v>0.3469807713469893</v>
       </c>
       <c r="H2">
-        <v>4307.517012457755</v>
+        <v>0.3888257506196349</v>
       </c>
       <c r="I2">
-        <v>211.2859818906992</v>
+        <v>0.3350979121183125</v>
       </c>
       <c r="J2">
-        <v>0.333468104530376</v>
+        <v>0.3391768349585501</v>
       </c>
       <c r="K2">
-        <v>601.2960838752448</v>
+        <v>0.3366009204034859</v>
       </c>
       <c r="L2">
-        <v>0.334508138674267</v>
+        <v>0.3361412596417585</v>
       </c>
       <c r="M2">
-        <v>1847.277308841738</v>
+        <v>0.3372118880992478</v>
       </c>
       <c r="N2">
-        <v>0.3333336459435783</v>
+        <v>0.3366435331773229</v>
       </c>
       <c r="O2">
-        <v>0.3616622835247741</v>
+        <v>0.3466174358309544</v>
       </c>
       <c r="P2">
-        <v>0.3344027859772449</v>
+        <v>0.3352305310690417</v>
       </c>
       <c r="Q2">
-        <v>1660.301874986088</v>
+        <v>0.3495328136190761</v>
       </c>
       <c r="R2">
-        <v>0.3652800957412062</v>
+        <v>0.3351866182656667</v>
       </c>
       <c r="S2">
-        <v>0.3333336459435783</v>
+        <v>0.3353026752993667</v>
       </c>
       <c r="T2">
-        <v>0.3476871301172864</v>
+        <v>0.3390762101177067</v>
       </c>
       <c r="U2">
-        <v>2.361367798893335</v>
+        <v>0.3347352484834606</v>
       </c>
       <c r="V2">
-        <v>0.3333336219206559</v>
+        <v>0.3713925605368384</v>
       </c>
       <c r="W2">
-        <v>0.3477376130496278</v>
+        <v>1.082958713908204</v>
       </c>
       <c r="X2">
-        <v>0.3454317863744568</v>
+        <v>0.3353652457376648</v>
       </c>
       <c r="Y2">
-        <v>0.3333336459435783</v>
+        <v>0.3345828989944088</v>
       </c>
       <c r="Z2">
-        <v>645.2620321313613</v>
+        <v>0.8277718868094959</v>
       </c>
       <c r="AA2">
-        <v>0.3333336459435783</v>
+        <v>0.4640696924930616</v>
       </c>
       <c r="AB2">
-        <v>0.3333336459435783</v>
+        <v>0.3631018664803548</v>
       </c>
       <c r="AC2">
-        <v>4418.55134210772</v>
+        <v>0.3432194208037964</v>
       </c>
       <c r="AD2">
-        <v>0.3333336459435783</v>
+        <v>0.4050149188171305</v>
       </c>
       <c r="AE2">
-        <v>1026.30260231315</v>
+        <v>2.309812297728558</v>
       </c>
       <c r="AF2">
-        <v>0.3333336219206559</v>
+        <v>94.94016122135696</v>
       </c>
       <c r="AG2">
-        <v>0.3333336459435783</v>
+        <v>4.495771348215064</v>
       </c>
       <c r="AH2">
-        <v>0.3341242776651239</v>
+        <v>1.296695340867407</v>
       </c>
       <c r="AI2">
-        <v>0.3333336459435783</v>
+        <v>0.3387987324369613</v>
       </c>
       <c r="AJ2">
-        <v>0.3515792481929412</v>
+        <v>15.33142875385544</v>
       </c>
       <c r="AK2">
-        <v>0.3333336459435783</v>
+        <v>0.343622196610745</v>
       </c>
       <c r="AL2">
-        <v>1200.267148543918</v>
+        <v>7.386003912715516</v>
       </c>
       <c r="AM2">
-        <v>0.4028375069383636</v>
+        <v>13.18379955295757</v>
       </c>
       <c r="AN2">
-        <v>1652.927852985075</v>
+        <v>0.3750703104902629</v>
       </c>
       <c r="AO2">
-        <v>0.3333336459435783</v>
+        <v>0.3352774749866501</v>
       </c>
       <c r="AP2">
-        <v>0.3353102105875436</v>
+        <v>9.150791039228968</v>
       </c>
       <c r="AQ2">
-        <v>0.333706559978021</v>
+        <v>0.3404809258926803</v>
       </c>
       <c r="AR2">
-        <v>0.3336295501371232</v>
+        <v>0.3635641219606572</v>
       </c>
       <c r="AS2">
-        <v>1018.301635269968</v>
+        <v>2.013444533183863</v>
       </c>
       <c r="AT2">
-        <v>0.3333336459435783</v>
+        <v>0.3772449059628911</v>
       </c>
       <c r="AU2">
-        <v>0.3333336459435783</v>
+        <v>0.3430694348549082</v>
       </c>
       <c r="AV2">
-        <v>4703.784000647021</v>
+        <v>2.533666945333981</v>
       </c>
       <c r="AW2">
-        <v>4245.000872816833</v>
+        <v>0.4886703137650473</v>
       </c>
       <c r="AX2">
-        <v>0.3333336286665081</v>
+        <v>0.3474735991171466</v>
       </c>
       <c r="AY2">
-        <v>0.3333336459435783</v>
+        <v>0.3639588845825621</v>
       </c>
       <c r="AZ2">
-        <v>0.3333336459435783</v>
+        <v>0.3349481314069771</v>
       </c>
       <c r="BA2">
-        <v>0.3333336459435783</v>
+        <v>0.3362016512814817</v>
       </c>
       <c r="BB2">
-        <v>0.3333336459435783</v>
+        <v>0.961537926798721</v>
       </c>
       <c r="BC2">
-        <v>0.3386996302984063</v>
+        <v>2.944365059622776</v>
       </c>
       <c r="BD2">
-        <v>0.3333336459435783</v>
+        <v>0.4348951938371049</v>
       </c>
       <c r="BE2">
-        <v>0.3333336459435783</v>
+        <v>0.390484979542889</v>
       </c>
       <c r="BF2">
-        <v>0.3333336074313202</v>
+        <v>0.4171173378814883</v>
       </c>
       <c r="BG2">
-        <v>0.3333336459435783</v>
+        <v>32.93858859772114</v>
       </c>
       <c r="BH2">
-        <v>0.3333336459435783</v>
+        <v>0.3376039414770516</v>
       </c>
       <c r="BI2">
-        <v>0.3334359702569335</v>
+        <v>0.3410969985004374</v>
       </c>
       <c r="BJ2">
-        <v>193.3272477555088</v>
+        <v>25.04438416178419</v>
       </c>
       <c r="BK2">
-        <v>0.3333336459435783</v>
+        <v>0.3454544845492881</v>
       </c>
       <c r="BL2">
-        <v>0.3334548982980155</v>
+        <v>0.3362207674064271</v>
       </c>
       <c r="BM2">
-        <v>0.3333336459435783</v>
+        <v>0.3381985003839387</v>
       </c>
       <c r="BN2">
-        <v>0.3333336459435783</v>
+        <v>7.832684459875694</v>
       </c>
       <c r="BO2">
-        <v>0.3333336099487854</v>
+        <v>15.42754093344082</v>
       </c>
       <c r="BP2">
-        <v>0.3333336459435783</v>
+        <v>0.3457245566024029</v>
       </c>
       <c r="BQ2">
-        <v>0.3333336459435783</v>
+        <v>0.3358459198541001</v>
       </c>
       <c r="BR2">
-        <v>0.3333336459435783</v>
+        <v>0.3380112860675148</v>
       </c>
       <c r="BS2">
-        <v>0.3333336459435783</v>
+        <v>0.3654299125152782</v>
       </c>
       <c r="BT2">
-        <v>0.3333336459435783</v>
+        <v>0.4331190896799796</v>
       </c>
       <c r="BU2">
-        <v>0.3333336087458284</v>
+        <v>0.3607223981231407</v>
       </c>
       <c r="BV2">
-        <v>0.3338959273689954</v>
+        <v>0.3444873040553358</v>
       </c>
       <c r="BW2">
-        <v>0.3333336459435783</v>
+        <v>0.3350674899335552</v>
       </c>
       <c r="BX2">
-        <v>547.253507408621</v>
+        <v>0.3359510613665305</v>
       </c>
       <c r="BY2">
-        <v>0.3518465746392292</v>
+        <v>0.3460611472982166</v>
       </c>
       <c r="BZ2">
-        <v>0.3333336459435783</v>
+        <v>0.3608267725925527</v>
       </c>
       <c r="CA2">
-        <v>0.3333819670623701</v>
+        <v>0.3402573138401789</v>
       </c>
       <c r="CB2">
-        <v>0.3333336459435783</v>
+        <v>0.4301118137577595</v>
       </c>
       <c r="CC2">
-        <v>0.3756844543223755</v>
+        <v>0.3455799801411896</v>
       </c>
       <c r="CD2">
-        <v>0.3576433201664996</v>
+        <v>0.3357122338124392</v>
       </c>
       <c r="CE2">
-        <v>0.3333336459435783</v>
+        <v>0.3377706896060184</v>
       </c>
       <c r="CF2">
-        <v>0.3333336459435783</v>
+        <v>0.3466333065947583</v>
       </c>
       <c r="CG2">
-        <v>0.3410731747953507</v>
+        <v>0.3387949841842415</v>
       </c>
       <c r="CH2">
-        <v>1267.117686693681</v>
+        <v>0.3530293057509812</v>
       </c>
       <c r="CI2">
-        <v>0.3521270761792277</v>
+        <v>0.3393848312897862</v>
       </c>
       <c r="CJ2">
-        <v>0.3333336459435783</v>
+        <v>0.3566912325742686</v>
       </c>
       <c r="CK2">
-        <v>0.3333793248261877</v>
+        <v>0.3443641018227941</v>
       </c>
       <c r="CL2">
-        <v>0.3333336459435783</v>
+        <v>0.3457102073803509</v>
       </c>
       <c r="CM2">
-        <v>0.3333336459435783</v>
+        <v>0.3402552608838426</v>
       </c>
       <c r="CN2">
-        <v>0.3337065594365852</v>
+        <v>0.3360143347255167</v>
       </c>
       <c r="CO2">
-        <v>1.080485053300262</v>
+        <v>0.4531420533114653</v>
       </c>
       <c r="CP2">
-        <v>0.3333336459435783</v>
+        <v>0.3558155949405267</v>
       </c>
       <c r="CQ2">
-        <v>3.520031647195306</v>
+        <v>0.3384485299819619</v>
       </c>
       <c r="CR2">
-        <v>0.3333336459435783</v>
+        <v>0.338814020735711</v>
       </c>
       <c r="CS2">
-        <v>0.3895705357400937</v>
+        <v>0.3349404154303682</v>
       </c>
       <c r="CT2">
-        <v>0.3422393287697189</v>
+        <v>0.6466505940846907</v>
       </c>
       <c r="CU2">
-        <v>0.3641681816996721</v>
+        <v>0.3559889341099857</v>
       </c>
       <c r="CV2">
-        <v>0.3333336459435783</v>
+        <v>32.76123373283447</v>
       </c>
       <c r="CW2">
-        <v>0.3490333938080961</v>
+        <v>0.3715280227572765</v>
       </c>
       <c r="CX2">
-        <v>0.376063274100307</v>
+        <v>0.4548105801794149</v>
       </c>
       <c r="CY2">
-        <v>0.3434641925265319</v>
+        <v>0.3358188110390688</v>
       </c>
       <c r="CZ2">
-        <v>0.3333336459435783</v>
+        <v>0.3430815510314492</v>
       </c>
       <c r="DA2">
-        <v>0.3333336147610353</v>
+        <v>0.3419916025173902</v>
       </c>
       <c r="DB2">
-        <v>0.3333336459435783</v>
+        <v>0.3373340172230138</v>
       </c>
       <c r="DC2">
-        <v>0.3528123526101995</v>
+        <v>0.4562070799064866</v>
       </c>
       <c r="DD2">
-        <v>0.3451771440123895</v>
+        <v>0.3775961046648387</v>
       </c>
       <c r="DE2">
-        <v>1083.461676115126</v>
+        <v>0.3986625020645953</v>
       </c>
       <c r="DF2">
-        <v>0.3333336459435783</v>
+        <v>0.3444195439719158</v>
       </c>
       <c r="DG2">
-        <v>2.515896594799436</v>
+        <v>0.3370752729090331</v>
       </c>
       <c r="DH2">
-        <v>0.3333644297855303</v>
+        <v>0.338667925515431</v>
       </c>
       <c r="DI2">
-        <v>0.3449651036554256</v>
+        <v>0.3516963013673802</v>
       </c>
       <c r="DJ2">
-        <v>0.3333336459435783</v>
+        <v>0.3359654622543363</v>
       </c>
       <c r="DK2">
-        <v>0.3333336459435783</v>
+        <v>0.3349024619207334</v>
       </c>
       <c r="DL2">
-        <v>0.3333336459435783</v>
+        <v>0.3380006140172215</v>
       </c>
       <c r="DM2">
-        <v>286.4717186618208</v>
+        <v>0.4595430857685635</v>
       </c>
       <c r="DN2">
-        <v>0.3333336286665081</v>
+        <v>0.3404584396240877</v>
       </c>
       <c r="DO2">
-        <v>0.3333336459435783</v>
+        <v>0.3357585890863886</v>
       </c>
       <c r="DP2">
-        <v>0.3333336459435783</v>
+        <v>0.3665616999045572</v>
       </c>
       <c r="DQ2">
-        <v>0.3612951885703256</v>
+        <v>0.3375565106768654</v>
       </c>
       <c r="DR2">
-        <v>0.3333336459435783</v>
+        <v>0.3348221358315318</v>
       </c>
       <c r="DS2">
-        <v>0.3333336459435783</v>
+        <v>27.46818756994641</v>
       </c>
       <c r="DT2">
-        <v>0.3524405309717479</v>
+        <v>0.3399993746813565</v>
       </c>
       <c r="DU2">
-        <v>0.369571648059738</v>
+        <v>0.3491310478313141</v>
       </c>
       <c r="DV2">
-        <v>0.3333336459435783</v>
+        <v>0.3590063371547823</v>
       </c>
       <c r="DW2">
-        <v>0.3333336459435783</v>
+        <v>0.3355042394355445</v>
       </c>
       <c r="DX2">
-        <v>0.3333336459435783</v>
+        <v>0.3367067415628661</v>
       </c>
       <c r="DY2">
-        <v>0.3603556824284127</v>
+        <v>0.3361844879403132</v>
       </c>
       <c r="DZ2">
-        <v>0.3333336459435783</v>
+        <v>0.3516665179322896</v>
       </c>
       <c r="EA2">
-        <v>0.3333336459435783</v>
+        <v>0.3383285633946104</v>
       </c>
       <c r="EB2">
-        <v>0.3729912788257942</v>
+        <v>0.3346410002122489</v>
       </c>
       <c r="EC2">
-        <v>0.3333336459435783</v>
+        <v>0.9681486966624542</v>
       </c>
       <c r="ED2">
-        <v>0.3414680245873853</v>
+        <v>0.3357406274899946</v>
       </c>
       <c r="EE2">
-        <v>0.3333336459435783</v>
+        <v>0.337312236041707</v>
       </c>
       <c r="EF2">
-        <v>0.3333336459435783</v>
+        <v>0.4166379764326597</v>
       </c>
       <c r="EG2">
-        <v>0.3333336459435783</v>
+        <v>0.3616438841848581</v>
       </c>
       <c r="EH2">
-        <v>0.3372164190314976</v>
+        <v>0.3363053645993865</v>
       </c>
       <c r="EI2">
-        <v>0.3692096624333914</v>
+        <v>3.676324218447043</v>
       </c>
       <c r="EJ2">
-        <v>0.3490802482197746</v>
+        <v>0.3347802263878027</v>
       </c>
       <c r="EK2">
-        <v>0.3333336086165774</v>
+        <v>0.3391779822785354</v>
       </c>
       <c r="EL2">
-        <v>0.3333336162221773</v>
+        <v>0.3364948787156548</v>
       </c>
       <c r="EM2">
-        <v>0.3480027343577263</v>
+        <v>0.3461278925243659</v>
       </c>
       <c r="EN2">
-        <v>0.349178582037808</v>
+        <v>0.3388503957841784</v>
       </c>
       <c r="EO2">
-        <v>0.3333990862219123</v>
+        <v>0.3349947022038491</v>
       </c>
       <c r="EP2">
-        <v>1.254606036960697</v>
+        <v>0.4425647277491002</v>
       </c>
       <c r="EQ2">
-        <v>0.3431023514728299</v>
+        <v>0.3721489961681592</v>
       </c>
       <c r="ER2">
-        <v>0.3349321745300808</v>
+        <v>0.3391797698760382</v>
       </c>
       <c r="ES2">
-        <v>0.3881380629558253</v>
+        <v>0.3388202114880783</v>
       </c>
       <c r="ET2">
-        <v>0.3333336183876502</v>
+        <v>0.3399990964378101</v>
       </c>
       <c r="EU2">
-        <v>1.238232800375845</v>
+        <v>0.3367203914942916</v>
       </c>
       <c r="EV2">
-        <v>0.3342594776499309</v>
+        <v>0.3370363531194232</v>
       </c>
       <c r="EW2">
-        <v>0.3333336459435783</v>
+        <v>0.3369125168250541</v>
       </c>
       <c r="EX2">
-        <v>0.3333336459435783</v>
+        <v>0.3534871653158166</v>
       </c>
       <c r="EY2">
-        <v>0.3402031945905655</v>
+        <v>0.3363617857817418</v>
       </c>
       <c r="EZ2">
-        <v>0.3333336459435783</v>
+        <v>0.3429811500878752</v>
       </c>
       <c r="FA2">
-        <v>763.1928856668804</v>
+        <v>0.3345825199246156</v>
       </c>
       <c r="FB2">
-        <v>0.3334207312170507</v>
+        <v>0.3354652781717096</v>
       </c>
       <c r="FC2">
-        <v>0.3333336459435783</v>
+        <v>0.3648336712433205</v>
       </c>
       <c r="FD2">
-        <v>495.374770634234</v>
+        <v>0.3417808671998178</v>
       </c>
       <c r="FE2">
-        <v>0.3400794522736251</v>
+        <v>0.4763886010593634</v>
       </c>
       <c r="FF2">
-        <v>0.3333534391407932</v>
+        <v>0.3373458846652874</v>
       </c>
       <c r="FG2">
-        <v>0.3333336459435783</v>
+        <v>0.3382383157640836</v>
       </c>
       <c r="FH2">
-        <v>0.3333336459435783</v>
+        <v>0.6239344266796638</v>
       </c>
       <c r="FI2">
-        <v>0.3333336459435783</v>
+        <v>0.3700031070034147</v>
       </c>
       <c r="FJ2">
-        <v>0.3434127080302704</v>
+        <v>0.3347783259144832</v>
       </c>
       <c r="FK2">
-        <v>0.3337065595479567</v>
+        <v>0.3776567332203505</v>
       </c>
       <c r="FL2">
-        <v>0.3485999283287041</v>
+        <v>0.3358666392133945</v>
       </c>
       <c r="FM2">
-        <v>0.3562718170704299</v>
+        <v>38.72122550414986</v>
       </c>
       <c r="FN2">
-        <v>0.3333336459435783</v>
+        <v>0.3410854751565426</v>
       </c>
       <c r="FO2">
-        <v>0.3333336459435783</v>
+        <v>31.30595026872082</v>
       </c>
       <c r="FP2">
-        <v>1.310244385628359</v>
+        <v>0.3370286142391979</v>
       </c>
       <c r="FQ2">
-        <v>0.3334347280848879</v>
+        <v>40.16453791818268</v>
       </c>
       <c r="FR2">
-        <v>328.2636015913881</v>
+        <v>0.3462574867177892</v>
       </c>
       <c r="FS2">
-        <v>0.3333336459435783</v>
+        <v>0.339025906183511</v>
       </c>
       <c r="FT2">
-        <v>65.6918273403502</v>
+        <v>0.343970399101506</v>
       </c>
       <c r="FU2">
-        <v>0.3813991422541867</v>
+        <v>0.3483009996435532</v>
       </c>
       <c r="FV2">
-        <v>0.3333336459435783</v>
+        <v>0.3394869753487016</v>
       </c>
       <c r="FW2">
-        <v>0.3366576155504065</v>
+        <v>0.4051700635925446</v>
       </c>
       <c r="FX2">
-        <v>0.3333336459435783</v>
+        <v>41.30228181646203</v>
       </c>
       <c r="FY2">
-        <v>0.3333336459435783</v>
+        <v>0.3367811129520323</v>
       </c>
       <c r="FZ2">
-        <v>0.3333336459435783</v>
+        <v>0.3365885721256763</v>
       </c>
       <c r="GA2">
-        <v>0.3333667954081229</v>
+        <v>5.607647597399065</v>
       </c>
       <c r="GB2">
-        <v>0.3333336286665081</v>
+        <v>0.337123164204126</v>
       </c>
       <c r="GC2">
-        <v>0.3333336459435783</v>
+        <v>0.3362945843653415</v>
       </c>
       <c r="GD2">
-        <v>0.423058665891823</v>
+        <v>0.3687685083196434</v>
       </c>
       <c r="GE2">
-        <v>0.3397248438495162</v>
+        <v>0.3344818653670625</v>
       </c>
       <c r="GF2">
-        <v>1.279671693747224</v>
+        <v>1.167604739334929</v>
       </c>
       <c r="GG2">
-        <v>0.3333336459435783</v>
+        <v>0.3368234880358766</v>
       </c>
       <c r="GH2">
-        <v>35.85257952298991</v>
+        <v>0.3453177653222605</v>
       </c>
       <c r="GI2">
-        <v>0.3333336459435783</v>
+        <v>0.3620659731145106</v>
       </c>
       <c r="GJ2">
-        <v>2.966876241575683</v>
+        <v>0.3482821648574208</v>
       </c>
       <c r="GK2">
-        <v>363.1390874516465</v>
+        <v>0.335459141411006</v>
       </c>
       <c r="GL2">
-        <v>587.2714057270097</v>
+        <v>0.3375451404267471</v>
       </c>
       <c r="GM2">
-        <v>0.3345915390781826</v>
+        <v>0.3751301403222733</v>
       </c>
       <c r="GN2">
-        <v>0.3365316433929206</v>
+        <v>0.3344754264940599</v>
       </c>
       <c r="GO2">
-        <v>0.347898428323571</v>
+        <v>40.38274301587836</v>
       </c>
       <c r="GP2">
-        <v>0.3333336459435783</v>
+        <v>0.3344581067616057</v>
       </c>
       <c r="GQ2">
-        <v>0.3333336219206559</v>
+        <v>0.4746241599719395</v>
       </c>
       <c r="GR2">
-        <v>0.3333336459435783</v>
+        <v>0.3558334171860733</v>
       </c>
       <c r="GS2">
-        <v>0.3600402921789153</v>
+        <v>0.39853624882322</v>
+      </c>
+      <c r="GT2">
+        <v>1.629707458434908</v>
+      </c>
+      <c r="GU2">
+        <v>0.3401672508002134</v>
+      </c>
+      <c r="GV2">
+        <v>0.3641451950092814</v>
+      </c>
+      <c r="GW2">
+        <v>0.3366754006350516</v>
+      </c>
+      <c r="GX2">
+        <v>0.3373612970620243</v>
+      </c>
+      <c r="GY2">
+        <v>0.3587454894789342</v>
+      </c>
+      <c r="GZ2">
+        <v>0.3373065035781678</v>
+      </c>
+      <c r="HA2">
+        <v>0.3497934039577705</v>
+      </c>
+      <c r="HB2">
+        <v>0.3410218207701478</v>
+      </c>
+      <c r="HC2">
+        <v>3.770970475885624</v>
+      </c>
+      <c r="HD2">
+        <v>0.3351638294417527</v>
+      </c>
+      <c r="HE2">
+        <v>0.3501020056122578</v>
+      </c>
+      <c r="HF2">
+        <v>0.3348019338595802</v>
+      </c>
+      <c r="HG2">
+        <v>1.995583918183113</v>
+      </c>
+      <c r="HH2">
+        <v>0.3493509609011854</v>
+      </c>
+      <c r="HI2">
+        <v>0.3370463194487481</v>
+      </c>
+      <c r="HJ2">
+        <v>15.14926325727861</v>
+      </c>
+      <c r="HK2">
+        <v>0.3350154612735914</v>
+      </c>
+      <c r="HL2">
+        <v>18.99057844474824</v>
+      </c>
+      <c r="HM2">
+        <v>0.3451761621106315</v>
+      </c>
+      <c r="HN2">
+        <v>41.47314800614792</v>
+      </c>
+      <c r="HO2">
+        <v>0.3353972308092806</v>
+      </c>
+      <c r="HP2">
+        <v>0.3407142158607049</v>
+      </c>
+      <c r="HQ2">
+        <v>0.3355089916751446</v>
+      </c>
+      <c r="HR2">
+        <v>0.3377964616580727</v>
+      </c>
+      <c r="HS2">
+        <v>0.3928898759374398</v>
+      </c>
+      <c r="HT2">
+        <v>6.873620572795905</v>
+      </c>
+      <c r="HU2">
+        <v>0.3460716011061157</v>
+      </c>
+      <c r="HV2">
+        <v>0.6795943834967676</v>
+      </c>
+      <c r="HW2">
+        <v>0.5249051815718428</v>
+      </c>
+      <c r="HX2">
+        <v>0.3672547778542825</v>
+      </c>
+      <c r="HY2">
+        <v>0.3640333457848822</v>
+      </c>
+      <c r="HZ2">
+        <v>4.236017384153165</v>
+      </c>
+      <c r="IA2">
+        <v>12.44981106874081</v>
+      </c>
+      <c r="IB2">
+        <v>0.3373346365772515</v>
+      </c>
+      <c r="IC2">
+        <v>0.5674402902491534</v>
+      </c>
+      <c r="ID2">
+        <v>27.07344637917887</v>
+      </c>
+      <c r="IE2">
+        <v>0.3623257399396642</v>
+      </c>
+      <c r="IF2">
+        <v>0.595250124405313</v>
+      </c>
+      <c r="IG2">
+        <v>0.4852603018787195</v>
+      </c>
+      <c r="IH2">
+        <v>0.3383197929964593</v>
+      </c>
+      <c r="II2">
+        <v>0.3398048410347094</v>
+      </c>
+      <c r="IJ2">
+        <v>0.345348814474479</v>
+      </c>
+      <c r="IK2">
+        <v>0.3488537748850673</v>
+      </c>
+      <c r="IL2">
+        <v>0.3396980201568218</v>
+      </c>
+      <c r="IM2">
+        <v>0.3398005335329063</v>
+      </c>
+      <c r="IN2">
+        <v>32.41030432310242</v>
+      </c>
+      <c r="IO2">
+        <v>0.3402264589987639</v>
+      </c>
+      <c r="IP2">
+        <v>0.3350863466231903</v>
+      </c>
+      <c r="IQ2">
+        <v>1.238936091311176</v>
+      </c>
+      <c r="IR2">
+        <v>105.41969511362</v>
+      </c>
+      <c r="IS2">
+        <v>0.3692841581846064</v>
+      </c>
+      <c r="IT2">
+        <v>0.3382175684594891</v>
+      </c>
+      <c r="IU2">
+        <v>0.3498686236425121</v>
+      </c>
+      <c r="IV2">
+        <v>0.3381145877392438</v>
+      </c>
+      <c r="IW2">
+        <v>0.3557470934863451</v>
+      </c>
+      <c r="IX2">
+        <v>0.3645383197495409</v>
+      </c>
+      <c r="IY2">
+        <v>0.3345534797459068</v>
+      </c>
+      <c r="IZ2">
+        <v>0.3733930033010724</v>
+      </c>
+      <c r="JA2">
+        <v>0.3370287003991554</v>
+      </c>
+      <c r="JB2">
+        <v>4.727442285996814</v>
+      </c>
+      <c r="JC2">
+        <v>0.3918811307803987</v>
+      </c>
+      <c r="JD2">
+        <v>0.336027423789821</v>
+      </c>
+      <c r="JE2">
+        <v>0.3376619106875116</v>
+      </c>
+      <c r="JF2">
+        <v>0.3384501962021362</v>
+      </c>
+      <c r="JG2">
+        <v>0.4476831726903253</v>
+      </c>
+      <c r="JH2">
+        <v>0.3410502449694012</v>
+      </c>
+      <c r="JI2">
+        <v>0.334772767996589</v>
+      </c>
+      <c r="JJ2">
+        <v>0.3954618114570471</v>
+      </c>
+      <c r="JK2">
+        <v>0.3383679983069883</v>
+      </c>
+      <c r="JL2">
+        <v>0.3369691280615531</v>
+      </c>
+      <c r="JM2">
+        <v>0.3356356782466428</v>
+      </c>
+      <c r="JN2">
+        <v>35.68549941572601</v>
+      </c>
+      <c r="JO2">
+        <v>0.3431189882841636</v>
+      </c>
+      <c r="JP2">
+        <v>0.3472823553380796</v>
+      </c>
+      <c r="JQ2">
+        <v>0.3424334408511608</v>
+      </c>
+      <c r="JR2">
+        <v>0.3384772426540575</v>
+      </c>
+      <c r="JS2">
+        <v>12.61925916484858</v>
+      </c>
+      <c r="JT2">
+        <v>0.3643103534068685</v>
+      </c>
+      <c r="JU2">
+        <v>31.46054311905884</v>
+      </c>
+      <c r="JV2">
+        <v>0.3404516395426238</v>
+      </c>
+      <c r="JW2">
+        <v>0.5802181320424162</v>
+      </c>
+      <c r="JX2">
+        <v>0.3458097635149868</v>
+      </c>
+      <c r="JY2">
+        <v>0.3467401598670692</v>
+      </c>
+      <c r="JZ2">
+        <v>0.3399821820541023</v>
+      </c>
+      <c r="KA2">
+        <v>0.3814845868454625</v>
+      </c>
+      <c r="KB2">
+        <v>0.3398024333017031</v>
+      </c>
+      <c r="KC2">
+        <v>0.3943074134843817</v>
+      </c>
+      <c r="KD2">
+        <v>0.335401476636795</v>
+      </c>
+      <c r="KE2">
+        <v>0.5438648127130276</v>
+      </c>
+      <c r="KF2">
+        <v>0.5737598304243956</v>
+      </c>
+      <c r="KG2">
+        <v>0.3348315015308352</v>
+      </c>
+      <c r="KH2">
+        <v>0.3591876298145475</v>
+      </c>
+      <c r="KI2">
+        <v>3.584042723162634</v>
+      </c>
+      <c r="KJ2">
+        <v>0.4455625971181191</v>
+      </c>
+      <c r="KK2">
+        <v>0.4309378933929016</v>
+      </c>
+      <c r="KL2">
+        <v>26.40097526582701</v>
+      </c>
+      <c r="KM2">
+        <v>0.3381403185452247</v>
+      </c>
+      <c r="KN2">
+        <v>3.927449884447433</v>
+      </c>
+      <c r="KO2">
+        <v>3.280154986508666</v>
+      </c>
+      <c r="KP2">
+        <v>0.3694431882271514</v>
+      </c>
+      <c r="KQ2">
+        <v>0.3771406861006166</v>
+      </c>
+      <c r="KR2">
+        <v>0.3587533711816688</v>
+      </c>
+      <c r="KS2">
+        <v>1.828857522284886</v>
+      </c>
+      <c r="KT2">
+        <v>0.9381758239686606</v>
+      </c>
+      <c r="KU2">
+        <v>0.3601175844515873</v>
+      </c>
+      <c r="KV2">
+        <v>0.3451007484460713</v>
+      </c>
+      <c r="KW2">
+        <v>0.336523351443423</v>
+      </c>
+      <c r="KX2">
+        <v>1.290273588224097</v>
+      </c>
+      <c r="KY2">
+        <v>10.43853048299447</v>
+      </c>
+      <c r="KZ2">
+        <v>0.3637501211735993</v>
+      </c>
+      <c r="LA2">
+        <v>70.85661765696514</v>
+      </c>
+      <c r="LB2">
+        <v>0.336550439409094</v>
+      </c>
+      <c r="LC2">
+        <v>0.4430709795570387</v>
+      </c>
+      <c r="LD2">
+        <v>0.3610627706487197</v>
+      </c>
+      <c r="LE2">
+        <v>1.3352173318605</v>
+      </c>
+      <c r="LF2">
+        <v>0.3524965674058742</v>
+      </c>
+      <c r="LG2">
+        <v>0.3717644769013191</v>
+      </c>
+      <c r="LH2">
+        <v>0.3347731354889883</v>
+      </c>
+      <c r="LI2">
+        <v>0.3511041983734371</v>
+      </c>
+      <c r="LJ2">
+        <v>0.3536351218027829</v>
+      </c>
+      <c r="LK2">
+        <v>0.3380826259505471</v>
+      </c>
+      <c r="LL2">
+        <v>0.3373213318431219</v>
+      </c>
+      <c r="LM2">
+        <v>0.3478929388535149</v>
+      </c>
+      <c r="LN2">
+        <v>0.4650287220419438</v>
+      </c>
+      <c r="LO2">
+        <v>0.3363539402538511</v>
+      </c>
+      <c r="LP2">
+        <v>0.3747046840364838</v>
+      </c>
+      <c r="LQ2">
+        <v>0.4609706963249268</v>
+      </c>
+      <c r="LR2">
+        <v>0.3755420554431128</v>
+      </c>
+      <c r="LS2">
+        <v>0.3347261513300807</v>
+      </c>
+      <c r="LT2">
+        <v>0.4163178537593292</v>
+      </c>
+      <c r="LU2">
+        <v>0.3357684016915645</v>
+      </c>
+      <c r="LV2">
+        <v>58.91785888527323</v>
+      </c>
+      <c r="LW2">
+        <v>2.15848659028908</v>
+      </c>
+      <c r="LX2">
+        <v>6.050846753377689</v>
+      </c>
+      <c r="LY2">
+        <v>0.334223748039099</v>
+      </c>
+      <c r="LZ2">
+        <v>0.3429294648649836</v>
+      </c>
+      <c r="MA2">
+        <v>0.5084845153930987</v>
+      </c>
+      <c r="MB2">
+        <v>0.4529995749418132</v>
+      </c>
+      <c r="MC2">
+        <v>0.3599649620974942</v>
+      </c>
+      <c r="MD2">
+        <v>0.3391387757934823</v>
+      </c>
+      <c r="ME2">
+        <v>0.3605622406963125</v>
+      </c>
+      <c r="MF2">
+        <v>0.3361788652990116</v>
+      </c>
+      <c r="MG2">
+        <v>0.4282633469576947</v>
+      </c>
+      <c r="MH2">
+        <v>0.3429577081131153</v>
+      </c>
+      <c r="MI2">
+        <v>0.3357095770928725</v>
+      </c>
+      <c r="MJ2">
+        <v>29.83146636876367</v>
+      </c>
+      <c r="MK2">
+        <v>0.3520935187331602</v>
+      </c>
+      <c r="ML2">
+        <v>0.3527199679091962</v>
+      </c>
+      <c r="MM2">
+        <v>7.647020633866132</v>
+      </c>
+      <c r="MN2">
+        <v>0.3371937672548637</v>
+      </c>
+      <c r="MO2">
+        <v>0.3362422852353952</v>
+      </c>
+      <c r="MP2">
+        <v>0.3346824097989811</v>
+      </c>
+      <c r="MQ2">
+        <v>0.3535900221184793</v>
+      </c>
+      <c r="MR2">
+        <v>0.3619990794796156</v>
+      </c>
+      <c r="MS2">
+        <v>0.3900237823299463</v>
+      </c>
+      <c r="MT2">
+        <v>0.4581206526862775</v>
+      </c>
+      <c r="MU2">
+        <v>0.3377259848654481</v>
+      </c>
+      <c r="MV2">
+        <v>0.364294303159355</v>
+      </c>
+      <c r="MW2">
+        <v>0.3524182419662875</v>
+      </c>
+      <c r="MX2">
+        <v>3.940838143064049</v>
+      </c>
+      <c r="MY2">
+        <v>0.3381740275209801</v>
+      </c>
+      <c r="MZ2">
+        <v>0.3368965143297205</v>
+      </c>
+      <c r="NA2">
+        <v>0.3398606670814592</v>
+      </c>
+      <c r="NB2">
+        <v>0.3372640662025599</v>
+      </c>
+      <c r="NC2">
+        <v>0.3362099688578964</v>
+      </c>
+      <c r="ND2">
+        <v>0.3377886849690557</v>
+      </c>
+      <c r="NE2">
+        <v>0.376236376663283</v>
+      </c>
+      <c r="NF2">
+        <v>0.3401002122285086</v>
+      </c>
+      <c r="NG2">
+        <v>0.3462887551779786</v>
+      </c>
+      <c r="NH2">
+        <v>1.246718516508668</v>
+      </c>
+      <c r="NI2">
+        <v>0.3451360202680986</v>
+      </c>
+      <c r="NJ2">
+        <v>0.3350797040866483</v>
+      </c>
+      <c r="NK2">
+        <v>0.4300328805499966</v>
+      </c>
+      <c r="NL2">
+        <v>0.3355427139200122</v>
+      </c>
+      <c r="NM2">
+        <v>0.3553378160755781</v>
+      </c>
+      <c r="NN2">
+        <v>0.3668658613814587</v>
+      </c>
+      <c r="NO2">
+        <v>0.3359094342955114</v>
+      </c>
+      <c r="NP2">
+        <v>4.665578299473709</v>
+      </c>
+      <c r="NQ2">
+        <v>0.3424357912601945</v>
+      </c>
+      <c r="NR2">
+        <v>0.3379898729758604</v>
+      </c>
+      <c r="NS2">
+        <v>0.5153952767731672</v>
+      </c>
+      <c r="NT2">
+        <v>0.335821045909279</v>
+      </c>
+      <c r="NU2">
+        <v>0.3606338978629963</v>
+      </c>
+      <c r="NV2">
+        <v>0.3377532385657693</v>
+      </c>
+      <c r="NW2">
+        <v>9.632284028331394</v>
+      </c>
+      <c r="NX2">
+        <v>3.519091783392712</v>
+      </c>
+      <c r="NY2">
+        <v>0.334670146847852</v>
+      </c>
+      <c r="NZ2">
+        <v>0.3360056174494232</v>
+      </c>
+      <c r="OA2">
+        <v>0.3397149150807533</v>
+      </c>
+      <c r="OB2">
+        <v>41.46702625596422</v>
+      </c>
+      <c r="OC2">
+        <v>0.3463648235821269</v>
+      </c>
+      <c r="OD2">
+        <v>0.4201341379746013</v>
+      </c>
+      <c r="OE2">
+        <v>0.3372616357467728</v>
+      </c>
+      <c r="OF2">
+        <v>0.3348824765510127</v>
+      </c>
+      <c r="OG2">
+        <v>0.3421275420474268</v>
+      </c>
+      <c r="OH2">
+        <v>0.3615300465935731</v>
+      </c>
+      <c r="OI2">
+        <v>0.3589523014520635</v>
+      </c>
+      <c r="OJ2">
+        <v>0.4434925829596149</v>
+      </c>
+      <c r="OK2">
+        <v>0.347208558275148</v>
       </c>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:401">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>0.3519147790013826</v>
+        <v>0.3555655058639996</v>
       </c>
       <c r="C3">
-        <v>82.32099462036435</v>
+        <v>22.43550140280623</v>
       </c>
       <c r="D3">
-        <v>1.333332210449499</v>
+        <v>0.33913007852076</v>
       </c>
       <c r="E3">
-        <v>60.25731497776004</v>
+        <v>3.684326789427849</v>
       </c>
       <c r="F3">
-        <v>134.5941400167031</v>
+        <v>0.3539303857277241</v>
       </c>
       <c r="G3">
-        <v>17.32042287924878</v>
+        <v>87.84617355688293</v>
       </c>
       <c r="H3">
-        <v>8.493099515146453</v>
+        <v>10.20508168290409</v>
       </c>
       <c r="I3">
-        <v>215.8846391404817</v>
+        <v>8.722497930127041</v>
       </c>
       <c r="J3">
-        <v>3.307754206879765</v>
+        <v>0.3508548655414552</v>
       </c>
       <c r="K3">
-        <v>0.344776193234119</v>
+        <v>6.105518995990526</v>
       </c>
       <c r="L3">
-        <v>378.3319398178513</v>
+        <v>0.3461570199965031</v>
       </c>
       <c r="M3">
-        <v>0.3467658208695575</v>
+        <v>0.3546453298973877</v>
       </c>
       <c r="N3">
-        <v>1.333332210449499</v>
+        <v>21.80800536653415</v>
       </c>
       <c r="O3">
-        <v>722.9045921356559</v>
+        <v>49.18423576003359</v>
       </c>
       <c r="P3">
-        <v>2.296624677303925</v>
+        <v>3.348699789753231</v>
       </c>
       <c r="Q3">
-        <v>0.3428820282583195</v>
+        <v>6.330165993061189</v>
       </c>
       <c r="R3">
-        <v>0.3588622607534901</v>
+        <v>0.3365694303586664</v>
       </c>
       <c r="S3">
-        <v>1.333332210449499</v>
+        <v>5.131297455065853</v>
       </c>
       <c r="T3">
-        <v>63.07308312479628</v>
+        <v>3.285542676716882</v>
       </c>
       <c r="U3">
-        <v>3.303450621586728</v>
+        <v>2.910512332144795</v>
       </c>
       <c r="V3">
-        <v>3.333332296739191</v>
+        <v>2.108492375747985</v>
       </c>
       <c r="W3">
-        <v>3.318907698688805</v>
+        <v>0.3342309556158217</v>
       </c>
       <c r="X3">
-        <v>399.314142048012</v>
+        <v>10.84996153432655</v>
       </c>
       <c r="Y3">
-        <v>1.333332210449499</v>
+        <v>4.658990868814249</v>
       </c>
       <c r="Z3">
-        <v>0.3465017941115517</v>
+        <v>21.35546014384315</v>
       </c>
       <c r="AA3">
-        <v>1.333332210449499</v>
+        <v>3.810492062340108</v>
       </c>
       <c r="AB3">
-        <v>1.333332210449499</v>
+        <v>29.9066555333666</v>
       </c>
       <c r="AC3">
-        <v>4.770120084759467</v>
+        <v>13.09204911647603</v>
       </c>
       <c r="AD3">
-        <v>1.333332210449499</v>
+        <v>29.71808878813452</v>
       </c>
       <c r="AE3">
-        <v>0.3403481829494568</v>
+        <v>5.568773377802803</v>
       </c>
       <c r="AF3">
-        <v>3.333332296739191</v>
+        <v>0.3780617171408313</v>
       </c>
       <c r="AG3">
-        <v>1.333332210449499</v>
+        <v>0.3822205629177367</v>
       </c>
       <c r="AH3">
-        <v>17.33194126008117</v>
+        <v>7.148600590049998</v>
       </c>
       <c r="AI3">
-        <v>1.333332210449499</v>
+        <v>8.388107318975635</v>
       </c>
       <c r="AJ3">
-        <v>1708.282998409228</v>
+        <v>56.59549741333125</v>
       </c>
       <c r="AK3">
-        <v>1.333332210449499</v>
+        <v>43.0857358587682</v>
       </c>
       <c r="AL3">
-        <v>0.3388695843771911</v>
+        <v>0.3441519871524207</v>
       </c>
       <c r="AM3">
-        <v>18.23912827411249</v>
+        <v>67.0684347063887</v>
       </c>
       <c r="AN3">
-        <v>29.836482532368</v>
+        <v>8.246033241179644</v>
       </c>
       <c r="AO3">
-        <v>1.333332210449499</v>
+        <v>9.747598908831746</v>
       </c>
       <c r="AP3">
-        <v>2.270509489562098</v>
+        <v>28.92106196392683</v>
       </c>
       <c r="AQ3">
-        <v>2.33229623960662</v>
+        <v>3.120439527736155</v>
       </c>
       <c r="AR3">
-        <v>13.33257582740052</v>
+        <v>0.3419568231093502</v>
       </c>
       <c r="AS3">
-        <v>0.3416487964447554</v>
+        <v>0.3751086882229397</v>
       </c>
       <c r="AT3">
-        <v>1.333332210449499</v>
+        <v>0.3397607243160379</v>
       </c>
       <c r="AU3">
-        <v>1.333332210449499</v>
+        <v>8.118855337658985</v>
       </c>
       <c r="AV3">
-        <v>39.94557881308108</v>
+        <v>20.45601086183721</v>
       </c>
       <c r="AW3">
-        <v>99.30624795410375</v>
+        <v>4.254770770133337</v>
       </c>
       <c r="AX3">
-        <v>2.333332272508275</v>
+        <v>18.75482775479083</v>
       </c>
       <c r="AY3">
-        <v>1.333332210449499</v>
+        <v>0.3460863380651398</v>
       </c>
       <c r="AZ3">
-        <v>1.333332210449499</v>
+        <v>2.780102565706267</v>
       </c>
       <c r="BA3">
-        <v>1.333332210449499</v>
+        <v>0.3378914841276452</v>
       </c>
       <c r="BB3">
-        <v>1.333332210449499</v>
+        <v>5.636722418448601</v>
       </c>
       <c r="BC3">
-        <v>2.2925764064183</v>
+        <v>14.47437230272535</v>
       </c>
       <c r="BD3">
-        <v>1.333332210449499</v>
+        <v>21.65685427883453</v>
       </c>
       <c r="BE3">
-        <v>1.333332210449499</v>
+        <v>0.3549901078273812</v>
       </c>
       <c r="BF3">
-        <v>296.3333323487845</v>
+        <v>0.3420826587575331</v>
       </c>
       <c r="BG3">
-        <v>1.333332210449499</v>
+        <v>0.3538298785110243</v>
       </c>
       <c r="BH3">
-        <v>1.333332210449499</v>
+        <v>0.3770207036655011</v>
       </c>
       <c r="BI3">
-        <v>3.333206894913151</v>
+        <v>5.902957608337397</v>
       </c>
       <c r="BJ3">
-        <v>683.0005606567577</v>
+        <v>0.339761680443435</v>
       </c>
       <c r="BK3">
-        <v>1.333332210449499</v>
+        <v>85.73163306229277</v>
       </c>
       <c r="BL3">
-        <v>3.310228334773655</v>
+        <v>7.665216338889097</v>
       </c>
       <c r="BM3">
-        <v>1.333332210449499</v>
+        <v>6.698557266748566</v>
       </c>
       <c r="BN3">
-        <v>1.333332210449499</v>
+        <v>0.3728916995159121</v>
       </c>
       <c r="BO3">
-        <v>17.33333233974181</v>
+        <v>29.32732709762703</v>
       </c>
       <c r="BP3">
-        <v>1.333332210449499</v>
+        <v>10.95298396556751</v>
       </c>
       <c r="BQ3">
-        <v>1.333332210449499</v>
+        <v>3.480584084193243</v>
       </c>
       <c r="BR3">
-        <v>1.333332210449499</v>
+        <v>6.593499175755155</v>
       </c>
       <c r="BS3">
-        <v>1.333332210449499</v>
+        <v>6.980240389481541</v>
       </c>
       <c r="BT3">
-        <v>1.333332210449499</v>
+        <v>6.69450658737727</v>
       </c>
       <c r="BU3">
-        <v>31.33333234406279</v>
+        <v>4.634126724060896</v>
       </c>
       <c r="BV3">
-        <v>2.332675343325035</v>
+        <v>29.88487465194387</v>
       </c>
       <c r="BW3">
-        <v>1.333332210449499</v>
+        <v>4.902489174844728</v>
       </c>
       <c r="BX3">
-        <v>0.3494351042804954</v>
+        <v>3.318387705126722</v>
       </c>
       <c r="BY3">
-        <v>13.30655762183177</v>
+        <v>5.608282740614894</v>
       </c>
       <c r="BZ3">
-        <v>1.333332210449499</v>
+        <v>11.21215371273999</v>
       </c>
       <c r="CA3">
-        <v>2.322311928277839</v>
+        <v>2.780576572719283</v>
       </c>
       <c r="CB3">
-        <v>1.333332210449499</v>
+        <v>26.98507958400527</v>
       </c>
       <c r="CC3">
-        <v>5.288822809105589</v>
+        <v>4.360435339513129</v>
       </c>
       <c r="CD3">
-        <v>44.27235263432539</v>
+        <v>3.14308712487243</v>
       </c>
       <c r="CE3">
-        <v>1.333332210449499</v>
+        <v>0.3351279622376357</v>
       </c>
       <c r="CF3">
-        <v>1.333332210449499</v>
+        <v>3.079793615234421</v>
       </c>
       <c r="CG3">
-        <v>4.324910736149034</v>
+        <v>5.367581855422817</v>
       </c>
       <c r="CH3">
-        <v>12.48110443221408</v>
+        <v>15.09034683910834</v>
       </c>
       <c r="CI3">
-        <v>81.30726977933759</v>
+        <v>10.31939931290541</v>
       </c>
       <c r="CJ3">
-        <v>1.333332210449499</v>
+        <v>0.3339561658075856</v>
       </c>
       <c r="CK3">
-        <v>3.330318648373016</v>
+        <v>0.336787113293503</v>
       </c>
       <c r="CL3">
-        <v>1.333332210449499</v>
+        <v>6.473234928740702</v>
       </c>
       <c r="CM3">
-        <v>1.333332210449499</v>
+        <v>4.769999572676714</v>
       </c>
       <c r="CN3">
-        <v>2.332296242948571</v>
+        <v>0.3579892690812982</v>
       </c>
       <c r="CO3">
-        <v>1.585998304644525</v>
+        <v>14.76774515790389</v>
       </c>
       <c r="CP3">
-        <v>1.333332210449499</v>
+        <v>8.691700377984946</v>
       </c>
       <c r="CQ3">
-        <v>44.05505494264475</v>
+        <v>3.678547963983515</v>
       </c>
       <c r="CR3">
-        <v>1.333332210449499</v>
+        <v>3.319607548846801</v>
       </c>
       <c r="CS3">
-        <v>7.263157952161275</v>
+        <v>4.175991984938131</v>
       </c>
       <c r="CT3">
-        <v>19.32183771852641</v>
+        <v>5.543097065055711</v>
       </c>
       <c r="CU3">
-        <v>2.302347903374028</v>
+        <v>0.3381542734306439</v>
       </c>
       <c r="CV3">
-        <v>1.333332210449499</v>
+        <v>0.3611739355342959</v>
       </c>
       <c r="CW3">
-        <v>79.29587626687275</v>
+        <v>3.649580864435376</v>
       </c>
       <c r="CX3">
-        <v>3.328481265217533</v>
+        <v>0.3459101480918698</v>
       </c>
       <c r="CY3">
-        <v>130.3147166018062</v>
+        <v>3.907882834808677</v>
       </c>
       <c r="CZ3">
-        <v>1.333332210449499</v>
+        <v>39.69390777239354</v>
       </c>
       <c r="DA3">
-        <v>6.333332322456346</v>
+        <v>14.99557928580339</v>
       </c>
       <c r="DB3">
-        <v>1.333332210449499</v>
+        <v>0.3574943917235265</v>
       </c>
       <c r="DC3">
-        <v>79.27913559192334</v>
+        <v>0.3472356399681251</v>
       </c>
       <c r="DD3">
-        <v>15.31848712969567</v>
+        <v>8.403995168765588</v>
       </c>
       <c r="DE3">
-        <v>150.7806272868411</v>
+        <v>33.42345489414354</v>
       </c>
       <c r="DF3">
-        <v>1.333332210449499</v>
+        <v>6.860654900206544</v>
       </c>
       <c r="DG3">
-        <v>16.07957619441832</v>
+        <v>1.64938337367084</v>
       </c>
       <c r="DH3">
-        <v>3.333247072745497</v>
+        <v>3.879739189537589</v>
       </c>
       <c r="DI3">
-        <v>2.321269561535414</v>
+        <v>22.80604111949916</v>
       </c>
       <c r="DJ3">
-        <v>1.333332210449499</v>
+        <v>3.657389331296206</v>
       </c>
       <c r="DK3">
-        <v>1.333332210449499</v>
+        <v>3.510758883249006</v>
       </c>
       <c r="DL3">
-        <v>1.333332210449499</v>
+        <v>2.312335701262906</v>
       </c>
       <c r="DM3">
-        <v>5.197892774398074</v>
+        <v>0.3472251966271158</v>
       </c>
       <c r="DN3">
-        <v>2.333332272508275</v>
+        <v>0.3497078247325663</v>
       </c>
       <c r="DO3">
-        <v>1.333332210449499</v>
+        <v>4.999992796691818</v>
       </c>
       <c r="DP3">
-        <v>1.333332210449499</v>
+        <v>0.3647560623601449</v>
       </c>
       <c r="DQ3">
-        <v>2.302229153393142</v>
+        <v>0.3464353293929229</v>
       </c>
       <c r="DR3">
-        <v>1.333332210449499</v>
+        <v>1.689615020558887</v>
       </c>
       <c r="DS3">
-        <v>1.333332210449499</v>
+        <v>0.3520061253302343</v>
       </c>
       <c r="DT3">
-        <v>5.303941960891886</v>
+        <v>0.3415703391995419</v>
       </c>
       <c r="DU3">
-        <v>287.2681644442392</v>
+        <v>8.104396170243351</v>
       </c>
       <c r="DV3">
-        <v>1.333332210449499</v>
+        <v>2.70833367651455</v>
       </c>
       <c r="DW3">
-        <v>1.333332210449499</v>
+        <v>7.74645927459246</v>
       </c>
       <c r="DX3">
-        <v>1.333332210449499</v>
+        <v>0.3337178829024696</v>
       </c>
       <c r="DY3">
-        <v>66.29891117512535</v>
+        <v>2.261709860556926</v>
       </c>
       <c r="DZ3">
-        <v>1.333332210449499</v>
+        <v>0.3431202494623726</v>
       </c>
       <c r="EA3">
-        <v>1.333332210449499</v>
+        <v>28.85873869109539</v>
       </c>
       <c r="EB3">
-        <v>10.25494202388455</v>
+        <v>0.336789709717715</v>
       </c>
       <c r="EC3">
-        <v>1.333332210449499</v>
+        <v>13.26878107845677</v>
       </c>
       <c r="ED3">
-        <v>2.325165335262867</v>
+        <v>6.967587255060777</v>
       </c>
       <c r="EE3">
-        <v>1.333332210449499</v>
+        <v>1.862792259648703</v>
       </c>
       <c r="EF3">
-        <v>1.333332210449499</v>
+        <v>65.65371110717042</v>
       </c>
       <c r="EG3">
-        <v>1.333332210449499</v>
+        <v>3.500760493592406</v>
       </c>
       <c r="EH3">
-        <v>11.29901458046304</v>
+        <v>0.3432073701834089</v>
       </c>
       <c r="EI3">
-        <v>86.20257417839572</v>
+        <v>82.20229499097545</v>
       </c>
       <c r="EJ3">
-        <v>126.2757854279323</v>
+        <v>3.241489910825946</v>
       </c>
       <c r="EK3">
-        <v>34.33333234452707</v>
+        <v>2.738768674403639</v>
       </c>
       <c r="EL3">
-        <v>5.333332317207964</v>
+        <v>3.734111273141023</v>
       </c>
       <c r="EM3">
-        <v>2.318572385714619</v>
+        <v>6.98232053669896</v>
       </c>
       <c r="EN3">
-        <v>2.290885267117873</v>
+        <v>6.470023177763795</v>
       </c>
       <c r="EO3">
-        <v>2.333223979753616</v>
+        <v>2.227862063982035</v>
       </c>
       <c r="EP3">
-        <v>1.3984878028994</v>
+        <v>14.56585941619357</v>
       </c>
       <c r="EQ3">
-        <v>33.30931967733205</v>
+        <v>7.436655104865115</v>
       </c>
       <c r="ER3">
-        <v>2.329211435385452</v>
+        <v>3.7546770929597</v>
       </c>
       <c r="ES3">
-        <v>2.9291588153729</v>
+        <v>6.836592962624591</v>
       </c>
       <c r="ET3">
-        <v>4.333332309429648</v>
+        <v>13.69847957418751</v>
       </c>
       <c r="EU3">
-        <v>1.343029479995288</v>
+        <v>10.40848992340392</v>
       </c>
       <c r="EV3">
-        <v>21.32684423736268</v>
+        <v>4.538229461684072</v>
       </c>
       <c r="EW3">
-        <v>1.333332210449499</v>
+        <v>4.345609969090975</v>
       </c>
       <c r="EX3">
-        <v>1.333332210449499</v>
+        <v>21.32072637266547</v>
       </c>
       <c r="EY3">
-        <v>3.325299516002542</v>
+        <v>4.410841451638897</v>
       </c>
       <c r="EZ3">
-        <v>1.333332210449499</v>
+        <v>4.232923954524258</v>
       </c>
       <c r="FA3">
-        <v>5.529723797057908</v>
+        <v>2.565754822677685</v>
       </c>
       <c r="FB3">
-        <v>8.289225283691446</v>
+        <v>1.868261082358699</v>
       </c>
       <c r="FC3">
-        <v>1.333332210449499</v>
+        <v>0.3347214244015911</v>
       </c>
       <c r="FD3">
-        <v>0.362876262881426</v>
+        <v>0.4229248988395313</v>
       </c>
       <c r="FE3">
-        <v>71.2966742312253</v>
+        <v>0.3728329038394168</v>
       </c>
       <c r="FF3">
-        <v>10.32331964104211</v>
+        <v>6.201814197801299</v>
       </c>
       <c r="FG3">
-        <v>1.333332210449499</v>
+        <v>2.929328653008686</v>
       </c>
       <c r="FH3">
-        <v>1.333332210449499</v>
+        <v>5.282993869759831</v>
       </c>
       <c r="FI3">
-        <v>1.333332210449499</v>
+        <v>3.019252096015996</v>
       </c>
       <c r="FJ3">
-        <v>2.257419919614077</v>
+        <v>4.805851712618973</v>
       </c>
       <c r="FK3">
-        <v>2.332296242186636</v>
+        <v>12.34866620552666</v>
       </c>
       <c r="FL3">
-        <v>85.2948322410831</v>
+        <v>0.4190605923802327</v>
       </c>
       <c r="FM3">
-        <v>13.68063721198221</v>
+        <v>0.3376614271737958</v>
       </c>
       <c r="FN3">
-        <v>1.333332210449499</v>
+        <v>7.88810266252808</v>
       </c>
       <c r="FO3">
-        <v>1.333332210449499</v>
+        <v>0.3802947737869093</v>
       </c>
       <c r="FP3">
-        <v>1.355984315523084</v>
+        <v>4.010064548534988</v>
       </c>
       <c r="FQ3">
-        <v>3.288444501220034</v>
+        <v>0.3605038478515927</v>
       </c>
       <c r="FR3">
-        <v>575.4058712740734</v>
+        <v>8.287385916106034</v>
       </c>
       <c r="FS3">
-        <v>1.333332210449499</v>
+        <v>4.253620212956347</v>
       </c>
       <c r="FT3">
-        <v>111.9312966792103</v>
+        <v>0.3364371129644737</v>
       </c>
       <c r="FU3">
-        <v>2.283687190797367</v>
+        <v>2.118702617793226</v>
       </c>
       <c r="FV3">
-        <v>1.333332210449499</v>
+        <v>19.56385603898361</v>
       </c>
       <c r="FW3">
-        <v>2.322311545185572</v>
+        <v>12.81806381898464</v>
       </c>
       <c r="FX3">
-        <v>1.333332210449499</v>
+        <v>0.3573809210289343</v>
       </c>
       <c r="FY3">
-        <v>1.333332210449499</v>
+        <v>2.025348441895723</v>
       </c>
       <c r="FZ3">
-        <v>1.333332210449499</v>
+        <v>2.492671291290814</v>
       </c>
       <c r="GA3">
-        <v>1.552007966373489</v>
+        <v>43.15663090151278</v>
       </c>
       <c r="GB3">
-        <v>2.333332272508275</v>
+        <v>1.980167899051035</v>
       </c>
       <c r="GC3">
-        <v>1.333332210449499</v>
+        <v>0.3389494379115723</v>
       </c>
       <c r="GD3">
-        <v>0.335013630538779</v>
+        <v>0.3422911839725867</v>
       </c>
       <c r="GE3">
-        <v>2.325269686673887</v>
+        <v>0.3337214301515848</v>
       </c>
       <c r="GF3">
-        <v>1.386900524660631</v>
+        <v>4.077670330637436</v>
       </c>
       <c r="GG3">
-        <v>1.333332210449499</v>
+        <v>3.638865353468352</v>
       </c>
       <c r="GH3">
-        <v>278.5808943941949</v>
+        <v>6.529592520866615</v>
       </c>
       <c r="GI3">
-        <v>1.333332210449499</v>
+        <v>11.91328197814901</v>
       </c>
       <c r="GJ3">
-        <v>2677.37432198785</v>
+        <v>5.014749399115181</v>
       </c>
       <c r="GK3">
-        <v>0.3843623901528697</v>
+        <v>2.180841021225014</v>
       </c>
       <c r="GL3">
-        <v>0.3391492097795854</v>
+        <v>0.3515250394959571</v>
       </c>
       <c r="GM3">
-        <v>361.3291815573802</v>
+        <v>12.76404225160512</v>
       </c>
       <c r="GN3">
-        <v>2.329742415030674</v>
+        <v>0.333658624907111</v>
       </c>
       <c r="GO3">
-        <v>1.830054570523931</v>
+        <v>0.3454479352751487</v>
       </c>
       <c r="GP3">
-        <v>1.333332210449499</v>
+        <v>0.333655989138356</v>
       </c>
       <c r="GQ3">
-        <v>3.333332296739191</v>
+        <v>26.77361069762808</v>
       </c>
       <c r="GR3">
-        <v>1.333332210449499</v>
+        <v>0.3739325703550913</v>
       </c>
       <c r="GS3">
-        <v>2.306287608421571</v>
+        <v>0.3730884885240537</v>
+      </c>
+      <c r="GT3">
+        <v>13.11965315320402</v>
+      </c>
+      <c r="GU3">
+        <v>12.16168838427594</v>
+      </c>
+      <c r="GV3">
+        <v>6.884718903674689</v>
+      </c>
+      <c r="GW3">
+        <v>2.906069447035808</v>
+      </c>
+      <c r="GX3">
+        <v>0.338453973021046</v>
+      </c>
+      <c r="GY3">
+        <v>0.3491385262720751</v>
+      </c>
+      <c r="GZ3">
+        <v>6.255428442390951</v>
+      </c>
+      <c r="HA3">
+        <v>10.32680186139899</v>
+      </c>
+      <c r="HB3">
+        <v>0.3516901590045963</v>
+      </c>
+      <c r="HC3">
+        <v>16.83893056491652</v>
+      </c>
+      <c r="HD3">
+        <v>8.016953976137405</v>
+      </c>
+      <c r="HE3">
+        <v>22.47265165825107</v>
+      </c>
+      <c r="HF3">
+        <v>5.234133650793143</v>
+      </c>
+      <c r="HG3">
+        <v>11.22854275421969</v>
+      </c>
+      <c r="HH3">
+        <v>4.094489097451992</v>
+      </c>
+      <c r="HI3">
+        <v>0.3420958159299178</v>
+      </c>
+      <c r="HJ3">
+        <v>2.168734424178493</v>
+      </c>
+      <c r="HK3">
+        <v>2.247857984986699</v>
+      </c>
+      <c r="HL3">
+        <v>0.3395241767499916</v>
+      </c>
+      <c r="HM3">
+        <v>0.4276717464548904</v>
+      </c>
+      <c r="HN3">
+        <v>0.5016873246049831</v>
+      </c>
+      <c r="HO3">
+        <v>2.345514190987239</v>
+      </c>
+      <c r="HP3">
+        <v>2.364066627507248</v>
+      </c>
+      <c r="HQ3">
+        <v>0.336052780285847</v>
+      </c>
+      <c r="HR3">
+        <v>12.45068247553805</v>
+      </c>
+      <c r="HS3">
+        <v>19.3406246281541</v>
+      </c>
+      <c r="HT3">
+        <v>25.30724782638631</v>
+      </c>
+      <c r="HU3">
+        <v>0.3491191020771252</v>
+      </c>
+      <c r="HV3">
+        <v>6.6104358699884</v>
+      </c>
+      <c r="HW3">
+        <v>1.034635414224749</v>
+      </c>
+      <c r="HX3">
+        <v>41.51010498145149</v>
+      </c>
+      <c r="HY3">
+        <v>14.32445455379393</v>
+      </c>
+      <c r="HZ3">
+        <v>17.75796894782674</v>
+      </c>
+      <c r="IA3">
+        <v>11.21236706068057</v>
+      </c>
+      <c r="IB3">
+        <v>4.753830366502247</v>
+      </c>
+      <c r="IC3">
+        <v>12.80013820440614</v>
+      </c>
+      <c r="ID3">
+        <v>0.339871649029041</v>
+      </c>
+      <c r="IE3">
+        <v>5.676427936973976</v>
+      </c>
+      <c r="IF3">
+        <v>30.38308605242391</v>
+      </c>
+      <c r="IG3">
+        <v>6.805674434530651</v>
+      </c>
+      <c r="IH3">
+        <v>0.3356659879631674</v>
+      </c>
+      <c r="II3">
+        <v>5.300220519573933</v>
+      </c>
+      <c r="IJ3">
+        <v>1.49302418703429</v>
+      </c>
+      <c r="IK3">
+        <v>8.79008205867294</v>
+      </c>
+      <c r="IL3">
+        <v>3.798001929499908</v>
+      </c>
+      <c r="IM3">
+        <v>11.84673688276528</v>
+      </c>
+      <c r="IN3">
+        <v>0.3746449867840643</v>
+      </c>
+      <c r="IO3">
+        <v>19.27163599713517</v>
+      </c>
+      <c r="IP3">
+        <v>2.699336709974933</v>
+      </c>
+      <c r="IQ3">
+        <v>16.26288661477773</v>
+      </c>
+      <c r="IR3">
+        <v>0.3389791340150569</v>
+      </c>
+      <c r="IS3">
+        <v>15.53045339121049</v>
+      </c>
+      <c r="IT3">
+        <v>7.738424766155162</v>
+      </c>
+      <c r="IU3">
+        <v>2.832184805186701</v>
+      </c>
+      <c r="IV3">
+        <v>0.343256769640344</v>
+      </c>
+      <c r="IW3">
+        <v>0.3380575864320377</v>
+      </c>
+      <c r="IX3">
+        <v>4.27798027898398</v>
+      </c>
+      <c r="IY3">
+        <v>2.348392707211024</v>
+      </c>
+      <c r="IZ3">
+        <v>2.132758040556169</v>
+      </c>
+      <c r="JA3">
+        <v>0.6886266409319248</v>
+      </c>
+      <c r="JB3">
+        <v>14.45390103741575</v>
+      </c>
+      <c r="JC3">
+        <v>6.69139836334311</v>
+      </c>
+      <c r="JD3">
+        <v>19.70735012466674</v>
+      </c>
+      <c r="JE3">
+        <v>1.563214885703463</v>
+      </c>
+      <c r="JF3">
+        <v>0.3354195541462663</v>
+      </c>
+      <c r="JG3">
+        <v>16.16851553102693</v>
+      </c>
+      <c r="JH3">
+        <v>2.313879415027641</v>
+      </c>
+      <c r="JI3">
+        <v>1.835775289137692</v>
+      </c>
+      <c r="JJ3">
+        <v>13.24310465604249</v>
+      </c>
+      <c r="JK3">
+        <v>0.3355976415174285</v>
+      </c>
+      <c r="JL3">
+        <v>0.3349783654578005</v>
+      </c>
+      <c r="JM3">
+        <v>0.3338299213132072</v>
+      </c>
+      <c r="JN3">
+        <v>0.3526804270728786</v>
+      </c>
+      <c r="JO3">
+        <v>7.523964450482384</v>
+      </c>
+      <c r="JP3">
+        <v>4.520716258522245</v>
+      </c>
+      <c r="JQ3">
+        <v>0.3516748635237859</v>
+      </c>
+      <c r="JR3">
+        <v>0.3348484556060763</v>
+      </c>
+      <c r="JS3">
+        <v>17.4115759273421</v>
+      </c>
+      <c r="JT3">
+        <v>2.690919318014315</v>
+      </c>
+      <c r="JU3">
+        <v>2.124172722364619</v>
+      </c>
+      <c r="JV3">
+        <v>14.35008904208383</v>
+      </c>
+      <c r="JW3">
+        <v>22.63851934051893</v>
+      </c>
+      <c r="JX3">
+        <v>2.976301209812705</v>
+      </c>
+      <c r="JY3">
+        <v>2.702212661989684</v>
+      </c>
+      <c r="JZ3">
+        <v>3.734049441084653</v>
+      </c>
+      <c r="KA3">
+        <v>18.71521243079489</v>
+      </c>
+      <c r="KB3">
+        <v>4.990951715838399</v>
+      </c>
+      <c r="KC3">
+        <v>14.87606385259876</v>
+      </c>
+      <c r="KD3">
+        <v>0.3368692822855342</v>
+      </c>
+      <c r="KE3">
+        <v>2.904872832525704</v>
+      </c>
+      <c r="KF3">
+        <v>3.328520534765071</v>
+      </c>
+      <c r="KG3">
+        <v>0.3336951929860099</v>
+      </c>
+      <c r="KH3">
+        <v>11.96651780327879</v>
+      </c>
+      <c r="KI3">
+        <v>0.3377817359327646</v>
+      </c>
+      <c r="KJ3">
+        <v>0.3345253925296106</v>
+      </c>
+      <c r="KK3">
+        <v>0.3784833173944136</v>
+      </c>
+      <c r="KL3">
+        <v>0.338822465147032</v>
+      </c>
+      <c r="KM3">
+        <v>0.3920895852350347</v>
+      </c>
+      <c r="KN3">
+        <v>0.3920484268652237</v>
+      </c>
+      <c r="KO3">
+        <v>0.3378541303886479</v>
+      </c>
+      <c r="KP3">
+        <v>0.3389995408950129</v>
+      </c>
+      <c r="KQ3">
+        <v>0.3643151494302986</v>
+      </c>
+      <c r="KR3">
+        <v>0.3404187444660224</v>
+      </c>
+      <c r="KS3">
+        <v>21.79416168660144</v>
+      </c>
+      <c r="KT3">
+        <v>0.8681683862341072</v>
+      </c>
+      <c r="KU3">
+        <v>0.3354378319045656</v>
+      </c>
+      <c r="KV3">
+        <v>4.08313701766956</v>
+      </c>
+      <c r="KW3">
+        <v>1.737451263218197</v>
+      </c>
+      <c r="KX3">
+        <v>0.4180166729786618</v>
+      </c>
+      <c r="KY3">
+        <v>31.94335199708328</v>
+      </c>
+      <c r="KZ3">
+        <v>17.74652027730502</v>
+      </c>
+      <c r="LA3">
+        <v>0.3437185278903774</v>
+      </c>
+      <c r="LB3">
+        <v>0.3341830926829211</v>
+      </c>
+      <c r="LC3">
+        <v>40.29807513141147</v>
+      </c>
+      <c r="LD3">
+        <v>4.020282754590686</v>
+      </c>
+      <c r="LE3">
+        <v>8.478053429650661</v>
+      </c>
+      <c r="LF3">
+        <v>3.312255000903319</v>
+      </c>
+      <c r="LG3">
+        <v>5.866621678042606</v>
+      </c>
+      <c r="LH3">
+        <v>2.269198357216885</v>
+      </c>
+      <c r="LI3">
+        <v>0.3543341425083876</v>
+      </c>
+      <c r="LJ3">
+        <v>113.796605555598</v>
+      </c>
+      <c r="LK3">
+        <v>10.76954897990094</v>
+      </c>
+      <c r="LL3">
+        <v>4.446777023853744</v>
+      </c>
+      <c r="LM3">
+        <v>3.177404542030563</v>
+      </c>
+      <c r="LN3">
+        <v>16.21559479028814</v>
+      </c>
+      <c r="LO3">
+        <v>7.989793273660684</v>
+      </c>
+      <c r="LP3">
+        <v>2.237915842149137</v>
+      </c>
+      <c r="LQ3">
+        <v>4.674819098312303</v>
+      </c>
+      <c r="LR3">
+        <v>0.4316020129893109</v>
+      </c>
+      <c r="LS3">
+        <v>3.252116278806988</v>
+      </c>
+      <c r="LT3">
+        <v>27.23618667472337</v>
+      </c>
+      <c r="LU3">
+        <v>5.095099362906342</v>
+      </c>
+      <c r="LV3">
+        <v>0.386826164019101</v>
+      </c>
+      <c r="LW3">
+        <v>2.51775766737127</v>
+      </c>
+      <c r="LX3">
+        <v>0.3534774426099717</v>
+      </c>
+      <c r="LY3">
+        <v>0.333649893216657</v>
+      </c>
+      <c r="LZ3">
+        <v>1.367726250487959</v>
+      </c>
+      <c r="MA3">
+        <v>9.102854259376658</v>
+      </c>
+      <c r="MB3">
+        <v>3.346999479659584</v>
+      </c>
+      <c r="MC3">
+        <v>12.88351048998547</v>
+      </c>
+      <c r="MD3">
+        <v>0.3349014214288747</v>
+      </c>
+      <c r="ME3">
+        <v>10.14840253036468</v>
+      </c>
+      <c r="MF3">
+        <v>1.787568259163961</v>
+      </c>
+      <c r="MG3">
+        <v>0.749441273457579</v>
+      </c>
+      <c r="MH3">
+        <v>10.21616159061755</v>
+      </c>
+      <c r="MI3">
+        <v>0.3363448843650381</v>
+      </c>
+      <c r="MJ3">
+        <v>0.3392896856986993</v>
+      </c>
+      <c r="MK3">
+        <v>0.4822696566234572</v>
+      </c>
+      <c r="ML3">
+        <v>10.65934819289549</v>
+      </c>
+      <c r="MM3">
+        <v>18.53357599902592</v>
+      </c>
+      <c r="MN3">
+        <v>4.208058321383697</v>
+      </c>
+      <c r="MO3">
+        <v>7.866961871868981</v>
+      </c>
+      <c r="MP3">
+        <v>3.163682431183767</v>
+      </c>
+      <c r="MQ3">
+        <v>5.490772642496081</v>
+      </c>
+      <c r="MR3">
+        <v>11.43884975052936</v>
+      </c>
+      <c r="MS3">
+        <v>23.19725992266714</v>
+      </c>
+      <c r="MT3">
+        <v>0.3552281780215709</v>
+      </c>
+      <c r="MU3">
+        <v>2.530284278867721</v>
+      </c>
+      <c r="MV3">
+        <v>6.350038272156257</v>
+      </c>
+      <c r="MW3">
+        <v>7.637538749711585</v>
+      </c>
+      <c r="MX3">
+        <v>21.25492142439288</v>
+      </c>
+      <c r="MY3">
+        <v>6.549839991880345</v>
+      </c>
+      <c r="MZ3">
+        <v>3.129707576860651</v>
+      </c>
+      <c r="NA3">
+        <v>1.808904478345513</v>
+      </c>
+      <c r="NB3">
+        <v>2.858331268149124</v>
+      </c>
+      <c r="NC3">
+        <v>2.494037943627015</v>
+      </c>
+      <c r="ND3">
+        <v>4.783900337693341</v>
+      </c>
+      <c r="NE3">
+        <v>15.24784479892003</v>
+      </c>
+      <c r="NF3">
+        <v>0.4790539563998184</v>
+      </c>
+      <c r="NG3">
+        <v>15.18056626989963</v>
+      </c>
+      <c r="NH3">
+        <v>0.9142200067544117</v>
+      </c>
+      <c r="NI3">
+        <v>3.964406316460653</v>
+      </c>
+      <c r="NJ3">
+        <v>0.3365964688830961</v>
+      </c>
+      <c r="NK3">
+        <v>35.96115442093572</v>
+      </c>
+      <c r="NL3">
+        <v>2.170882374047409</v>
+      </c>
+      <c r="NM3">
+        <v>9.210758472955101</v>
+      </c>
+      <c r="NN3">
+        <v>0.3386306841543428</v>
+      </c>
+      <c r="NO3">
+        <v>1.605531564726061</v>
+      </c>
+      <c r="NP3">
+        <v>13.01589465175625</v>
+      </c>
+      <c r="NQ3">
+        <v>2.401046562409186</v>
+      </c>
+      <c r="NR3">
+        <v>2.504626172737957</v>
+      </c>
+      <c r="NS3">
+        <v>0.3380582424852474</v>
+      </c>
+      <c r="NT3">
+        <v>12.47131004957506</v>
+      </c>
+      <c r="NU3">
+        <v>13.79051751746496</v>
+      </c>
+      <c r="NV3">
+        <v>2.564856610161093</v>
+      </c>
+      <c r="NW3">
+        <v>30.20386018031227</v>
+      </c>
+      <c r="NX3">
+        <v>0.3493209415039583</v>
+      </c>
+      <c r="NY3">
+        <v>0.3373137476948853</v>
+      </c>
+      <c r="NZ3">
+        <v>2.845782412830171</v>
+      </c>
+      <c r="OA3">
+        <v>8.140541217327344</v>
+      </c>
+      <c r="OB3">
+        <v>16.9337529251681</v>
+      </c>
+      <c r="OC3">
+        <v>0.3345487990584962</v>
+      </c>
+      <c r="OD3">
+        <v>35.27764801648595</v>
+      </c>
+      <c r="OE3">
+        <v>19.63451016397979</v>
+      </c>
+      <c r="OF3">
+        <v>0.33478772443261</v>
+      </c>
+      <c r="OG3">
+        <v>3.291293654257821</v>
+      </c>
+      <c r="OH3">
+        <v>3.839981799996279</v>
+      </c>
+      <c r="OI3">
+        <v>4.577424044156297</v>
+      </c>
+      <c r="OJ3">
+        <v>25.76741506766566</v>
+      </c>
+      <c r="OK3">
+        <v>4.910886485818983</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:401">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B4">
-        <v>0.4009547157250555</v>
+        <v>3.161980161111074</v>
       </c>
       <c r="C4">
-        <v>0.3399212460069272</v>
+        <v>0.3401479301954847</v>
       </c>
       <c r="D4">
-        <v>0.3333341436041681</v>
+        <v>1.243651575522171</v>
       </c>
       <c r="E4">
-        <v>0.3697514473786123</v>
+        <v>20.67991011153455</v>
       </c>
       <c r="F4">
-        <v>98.93034116881586</v>
+        <v>15.278166803518</v>
       </c>
       <c r="G4">
-        <v>0.3417057063554969</v>
+        <v>0.4233913591954353</v>
       </c>
       <c r="H4">
-        <v>209.9898880270815</v>
+        <v>0.5679875212429664</v>
       </c>
       <c r="I4">
-        <v>115.829378968804</v>
+        <v>0.3359910436126438</v>
       </c>
       <c r="J4">
-        <v>0.358777688584931</v>
+        <v>5.456105660720677</v>
       </c>
       <c r="K4">
-        <v>0.3591399315103548</v>
+        <v>0.3448036306989639</v>
       </c>
       <c r="L4">
-        <v>0.3335520434716522</v>
+        <v>1.545710569358626</v>
       </c>
       <c r="M4">
-        <v>0.3759253373823097</v>
+        <v>7.36848580367611</v>
       </c>
       <c r="N4">
-        <v>0.3333341436041681</v>
+        <v>0.3929083904792151</v>
       </c>
       <c r="O4">
-        <v>90.73374558080842</v>
+        <v>0.3620928858001097</v>
       </c>
       <c r="P4">
-        <v>0.3689725367123211</v>
+        <v>0.3358287627592276</v>
       </c>
       <c r="Q4">
-        <v>0.3552429856442172</v>
+        <v>0.3790326987921454</v>
       </c>
       <c r="R4">
-        <v>4410.275857643497</v>
+        <v>1.230391931497757</v>
       </c>
       <c r="S4">
-        <v>0.3333341436041681</v>
+        <v>0.3354215725093205</v>
       </c>
       <c r="T4">
-        <v>2.579229745076933</v>
+        <v>0.6277741736573512</v>
       </c>
       <c r="U4">
-        <v>0.3351815795087802</v>
+        <v>0.3369018292490998</v>
       </c>
       <c r="V4">
-        <v>0.3333340813376112</v>
+        <v>0.4501726968040559</v>
       </c>
       <c r="W4">
-        <v>0.333354688256799</v>
+        <v>0.4077634410551633</v>
       </c>
       <c r="X4">
-        <v>0.3404261656087001</v>
+        <v>0.3356004880890002</v>
       </c>
       <c r="Y4">
-        <v>0.3333341436041681</v>
+        <v>0.3349424058633282</v>
       </c>
       <c r="Z4">
-        <v>0.3914660745152706</v>
+        <v>0.4698932119349517</v>
       </c>
       <c r="AA4">
-        <v>0.3333341436041681</v>
+        <v>0.3969866099871925</v>
       </c>
       <c r="AB4">
-        <v>0.3333341436041681</v>
+        <v>0.3461190217079715</v>
       </c>
       <c r="AC4">
-        <v>956.6785378075108</v>
+        <v>0.3394535287448968</v>
       </c>
       <c r="AD4">
-        <v>0.3333341436041681</v>
+        <v>0.7641595168439818</v>
       </c>
       <c r="AE4">
-        <v>0.3570495038905117</v>
+        <v>8.19827473671473</v>
       </c>
       <c r="AF4">
-        <v>0.3333340813376112</v>
+        <v>0.5199274499002569</v>
       </c>
       <c r="AG4">
-        <v>0.3333341436041681</v>
+        <v>12.68578034080019</v>
       </c>
       <c r="AH4">
-        <v>0.3339344622510587</v>
+        <v>0.3499541695813099</v>
       </c>
       <c r="AI4">
-        <v>0.3333341436041681</v>
+        <v>0.3912512491517251</v>
       </c>
       <c r="AJ4">
-        <v>0.3654223425716788</v>
+        <v>0.4837589988949515</v>
       </c>
       <c r="AK4">
-        <v>0.3333341436041681</v>
+        <v>0.5495390206898312</v>
       </c>
       <c r="AL4">
-        <v>0.3939818716933665</v>
+        <v>35.44160786108012</v>
       </c>
       <c r="AM4">
-        <v>0.3580342189377884</v>
+        <v>0.4690879630006767</v>
       </c>
       <c r="AN4">
-        <v>55.23566448254245</v>
+        <v>0.3768646271991558</v>
       </c>
       <c r="AO4">
-        <v>0.3333341436041681</v>
+        <v>0.3355700496475948</v>
       </c>
       <c r="AP4">
-        <v>0.3941802998432416</v>
+        <v>0.4253859848323606</v>
       </c>
       <c r="AQ4">
-        <v>0.3339972004117897</v>
+        <v>0.3383400106444408</v>
       </c>
       <c r="AR4">
-        <v>0.3337946224598007</v>
+        <v>8.077346777677425</v>
       </c>
       <c r="AS4">
-        <v>0.3567159335765643</v>
+        <v>11.18308054489022</v>
       </c>
       <c r="AT4">
-        <v>0.3333341436041681</v>
+        <v>9.871102293966283</v>
       </c>
       <c r="AU4">
-        <v>0.3333341436041681</v>
+        <v>0.9015906635489404</v>
       </c>
       <c r="AV4">
-        <v>1127.270420539876</v>
+        <v>0.5864763777757412</v>
       </c>
       <c r="AW4">
-        <v>545.6928792290446</v>
+        <v>0.3994805444964133</v>
       </c>
       <c r="AX4">
-        <v>0.3333340988226143</v>
+        <v>0.3544210192510457</v>
       </c>
       <c r="AY4">
-        <v>0.3333341436041681</v>
+        <v>2.952785122317897</v>
       </c>
       <c r="AZ4">
-        <v>0.3333341436041681</v>
+        <v>0.3354200229311914</v>
       </c>
       <c r="BA4">
-        <v>0.3333341436041681</v>
+        <v>1.666523289722343</v>
       </c>
       <c r="BB4">
-        <v>0.3333341436041681</v>
+        <v>0.3660233522445593</v>
       </c>
       <c r="BC4">
-        <v>0.3687239632769329</v>
+        <v>0.4773930219131547</v>
       </c>
       <c r="BD4">
-        <v>0.3333341436041681</v>
+        <v>0.4540250487057368</v>
       </c>
       <c r="BE4">
-        <v>0.3333341436041681</v>
+        <v>27.5673778572529</v>
       </c>
       <c r="BF4">
-        <v>0.3333340437817939</v>
+        <v>2.779708275862584</v>
       </c>
       <c r="BG4">
-        <v>0.3333341436041681</v>
+        <v>0.3412793266767469</v>
       </c>
       <c r="BH4">
-        <v>0.3333341436041681</v>
+        <v>2.73429293599159</v>
       </c>
       <c r="BI4">
-        <v>0.3333571348273164</v>
+        <v>0.3676081283739588</v>
       </c>
       <c r="BJ4">
-        <v>12.67219158771898</v>
+        <v>0.34635085658579</v>
       </c>
       <c r="BK4">
-        <v>0.3333341436041681</v>
+        <v>21.02217440395432</v>
       </c>
       <c r="BL4">
-        <v>0.3563167669236255</v>
+        <v>0.3367595074865304</v>
       </c>
       <c r="BM4">
-        <v>0.3333341436041681</v>
+        <v>0.3471247096673105</v>
       </c>
       <c r="BN4">
-        <v>0.3333341436041681</v>
+        <v>7.883195514179651</v>
       </c>
       <c r="BO4">
-        <v>0.3333340503069684</v>
+        <v>0.4383604573017876</v>
       </c>
       <c r="BP4">
-        <v>0.3333341436041681</v>
+        <v>1.727404033838531</v>
       </c>
       <c r="BQ4">
-        <v>0.3333341436041681</v>
+        <v>0.3926934205548539</v>
       </c>
       <c r="BR4">
-        <v>0.3333341436041681</v>
+        <v>0.335540942045511</v>
       </c>
       <c r="BS4">
-        <v>0.3333341436041681</v>
+        <v>0.3631654880840441</v>
       </c>
       <c r="BT4">
-        <v>0.3333341436041681</v>
+        <v>0.3560796236908065</v>
       </c>
       <c r="BU4">
-        <v>0.3333340471889493</v>
+        <v>0.3414840446613967</v>
       </c>
       <c r="BV4">
-        <v>0.3334287293031399</v>
+        <v>0.3455486238514309</v>
       </c>
       <c r="BW4">
-        <v>0.3333341436041681</v>
+        <v>0.3359179718813786</v>
       </c>
       <c r="BX4">
-        <v>0.3970574870861683</v>
+        <v>0.3356599080481082</v>
       </c>
       <c r="BY4">
-        <v>0.3415958035225031</v>
+        <v>0.3394970909053283</v>
       </c>
       <c r="BZ4">
-        <v>0.3333341436041681</v>
+        <v>0.424280389468055</v>
       </c>
       <c r="CA4">
-        <v>0.3443061046560518</v>
+        <v>0.3384389288887752</v>
       </c>
       <c r="CB4">
-        <v>0.3333341436041681</v>
+        <v>0.550023186183225</v>
       </c>
       <c r="CC4">
-        <v>0.3354927365637945</v>
+        <v>0.3623883315010267</v>
       </c>
       <c r="CD4">
-        <v>0.370004045499344</v>
+        <v>0.350139690082439</v>
       </c>
       <c r="CE4">
-        <v>0.3333341436041681</v>
+        <v>1.090792819791063</v>
       </c>
       <c r="CF4">
-        <v>0.3333341436041681</v>
+        <v>0.3410888923312571</v>
       </c>
       <c r="CG4">
-        <v>0.3340160890508676</v>
+        <v>0.659990465579656</v>
       </c>
       <c r="CH4">
-        <v>0.4012088740913283</v>
+        <v>0.7454573047316871</v>
       </c>
       <c r="CI4">
-        <v>0.3406031444769153</v>
+        <v>0.3518597283718173</v>
       </c>
       <c r="CJ4">
-        <v>0.3333341436041681</v>
+        <v>1.258708634681716</v>
       </c>
       <c r="CK4">
-        <v>0.336302026797881</v>
+        <v>2.579549464909057</v>
       </c>
       <c r="CL4">
-        <v>0.3333341436041681</v>
+        <v>0.5053999969810665</v>
       </c>
       <c r="CM4">
-        <v>0.3333341436041681</v>
+        <v>0.3421875032557837</v>
       </c>
       <c r="CN4">
-        <v>0.3339971976112749</v>
+        <v>1.683402810716246</v>
       </c>
       <c r="CO4">
-        <v>0.3335166420432455</v>
+        <v>0.362502520369577</v>
       </c>
       <c r="CP4">
-        <v>0.3333341436041681</v>
+        <v>0.3444590960664126</v>
       </c>
       <c r="CQ4">
-        <v>0.4249134101443351</v>
+        <v>0.3584888375430761</v>
       </c>
       <c r="CR4">
-        <v>0.3333341436041681</v>
+        <v>0.3410797852253762</v>
       </c>
       <c r="CS4">
-        <v>0.347271512088518</v>
+        <v>0.335434210177776</v>
       </c>
       <c r="CT4">
-        <v>0.3359229526996302</v>
+        <v>0.3603195347953156</v>
       </c>
       <c r="CU4">
-        <v>0.3334839149193937</v>
+        <v>1.504411375718842</v>
       </c>
       <c r="CV4">
-        <v>0.3333341436041681</v>
+        <v>5.760895663659163</v>
       </c>
       <c r="CW4">
-        <v>0.355090339312084</v>
+        <v>4.896804025810471</v>
       </c>
       <c r="CX4">
-        <v>1685.29545546067</v>
+        <v>8.873809724884117</v>
       </c>
       <c r="CY4">
-        <v>0.3418192056623712</v>
+        <v>0.3834448331445438</v>
       </c>
       <c r="CZ4">
-        <v>0.3333341436041681</v>
+        <v>0.3371261432170305</v>
       </c>
       <c r="DA4">
-        <v>0.3333340627801396</v>
+        <v>0.3451983717690981</v>
       </c>
       <c r="DB4">
-        <v>0.3333341436041681</v>
+        <v>2.508102382717641</v>
       </c>
       <c r="DC4">
-        <v>0.3680520554582999</v>
+        <v>3.060322643555852</v>
       </c>
       <c r="DD4">
-        <v>0.3363357262870266</v>
+        <v>2.167949422969631</v>
       </c>
       <c r="DE4">
-        <v>303.7576965980176</v>
+        <v>0.4023740234008264</v>
       </c>
       <c r="DF4">
-        <v>0.3333341436041681</v>
+        <v>0.339979994643738</v>
       </c>
       <c r="DG4">
-        <v>0.4045272107673102</v>
+        <v>2.849212891289224</v>
       </c>
       <c r="DH4">
-        <v>0.3333884974663478</v>
+        <v>0.3363347932787423</v>
       </c>
       <c r="DI4">
-        <v>0.333765334804483</v>
+        <v>0.3605456703380686</v>
       </c>
       <c r="DJ4">
-        <v>0.3333341436041681</v>
+        <v>0.3373846217130262</v>
       </c>
       <c r="DK4">
-        <v>0.3333341436041681</v>
+        <v>0.3352460403311846</v>
       </c>
       <c r="DL4">
-        <v>0.3333341436041681</v>
+        <v>0.3358987092325498</v>
       </c>
       <c r="DM4">
-        <v>325.3303885637664</v>
+        <v>2.573722985671683</v>
       </c>
       <c r="DN4">
-        <v>0.3333340988226143</v>
+        <v>1.318144037963814</v>
       </c>
       <c r="DO4">
-        <v>0.3333341436041681</v>
+        <v>0.3357321359555812</v>
       </c>
       <c r="DP4">
-        <v>0.3333341436041681</v>
+        <v>25.93738608989578</v>
       </c>
       <c r="DQ4">
-        <v>0.3364756580295551</v>
+        <v>1.829665191242461</v>
       </c>
       <c r="DR4">
-        <v>0.3333341436041681</v>
+        <v>0.3349447856791575</v>
       </c>
       <c r="DS4">
-        <v>0.3333341436041681</v>
+        <v>49.38195100517283</v>
       </c>
       <c r="DT4">
-        <v>0.3436175081297979</v>
+        <v>1.229637786323481</v>
       </c>
       <c r="DU4">
-        <v>0.3622639076914094</v>
+        <v>0.4308685417483306</v>
       </c>
       <c r="DV4">
-        <v>0.3333341436041681</v>
+        <v>0.3529667418094558</v>
       </c>
       <c r="DW4">
-        <v>0.3333341436041681</v>
+        <v>0.3357333206161658</v>
       </c>
       <c r="DX4">
-        <v>0.3333341436041681</v>
+        <v>1.306211055608878</v>
       </c>
       <c r="DY4">
-        <v>0.3407331424392493</v>
+        <v>0.3357774071144315</v>
       </c>
       <c r="DZ4">
-        <v>0.3333341436041681</v>
+        <v>1.99015433357155</v>
       </c>
       <c r="EA4">
-        <v>0.3333341436041681</v>
+        <v>0.341299070659176</v>
       </c>
       <c r="EB4">
-        <v>0.3720666972792241</v>
+        <v>1.035909844968992</v>
       </c>
       <c r="EC4">
-        <v>0.3333341436041681</v>
+        <v>0.3692843163609463</v>
       </c>
       <c r="ED4">
-        <v>0.3333666401457755</v>
+        <v>0.3441070111552482</v>
       </c>
       <c r="EE4">
-        <v>0.3333341436041681</v>
+        <v>0.3387884221746477</v>
       </c>
       <c r="EF4">
-        <v>0.3333341436041681</v>
+        <v>25.04999970474146</v>
       </c>
       <c r="EG4">
-        <v>0.3333341436041681</v>
+        <v>0.3413983566764288</v>
       </c>
       <c r="EH4">
-        <v>0.3637690004998185</v>
+        <v>8.137529317515746</v>
       </c>
       <c r="EI4">
-        <v>0.4282161591591484</v>
+        <v>3.906947795875391</v>
       </c>
       <c r="EJ4">
-        <v>0.3751343238400252</v>
+        <v>0.3350727710864245</v>
       </c>
       <c r="EK4">
-        <v>0.3333340468539356</v>
+        <v>0.3372759064568294</v>
       </c>
       <c r="EL4">
-        <v>0.3333340665673653</v>
+        <v>0.3891252486698674</v>
       </c>
       <c r="EM4">
-        <v>0.3334248799227006</v>
+        <v>0.359685158989657</v>
       </c>
       <c r="EN4">
-        <v>0.3599361508368052</v>
+        <v>0.3389392220730897</v>
       </c>
       <c r="EO4">
-        <v>0.3333769340217922</v>
+        <v>0.3395145596883692</v>
       </c>
       <c r="EP4">
-        <v>0.3469061601255851</v>
+        <v>0.3452649760907582</v>
       </c>
       <c r="EQ4">
-        <v>0.3475779711897613</v>
+        <v>0.3712615397992858</v>
       </c>
       <c r="ER4">
-        <v>0.3358563900812976</v>
+        <v>0.3366929841183294</v>
       </c>
       <c r="ES4">
-        <v>2011.682703121659</v>
+        <v>0.3577489976732707</v>
       </c>
       <c r="ET4">
-        <v>0.3333340721801908</v>
+        <v>0.3546015657208801</v>
       </c>
       <c r="EU4">
-        <v>0.418737719612691</v>
+        <v>0.3360133997502553</v>
       </c>
       <c r="EV4">
-        <v>0.3388962849841843</v>
+        <v>0.3363643555044907</v>
       </c>
       <c r="EW4">
-        <v>0.3333341436041681</v>
+        <v>0.4655473180865361</v>
       </c>
       <c r="EX4">
-        <v>0.3333341436041681</v>
+        <v>0.3526732115620801</v>
       </c>
       <c r="EY4">
-        <v>0.33449728940307</v>
+        <v>0.3411540115277893</v>
       </c>
       <c r="EZ4">
-        <v>0.3333341436041681</v>
+        <v>0.3379818378162109</v>
       </c>
       <c r="FA4">
-        <v>4774.277390536045</v>
+        <v>0.3353872295373121</v>
       </c>
       <c r="FB4">
-        <v>0.3773539850859238</v>
+        <v>0.3366187076567432</v>
       </c>
       <c r="FC4">
-        <v>0.3333341436041681</v>
+        <v>2.962606102972023</v>
       </c>
       <c r="FD4">
-        <v>617.2623531028712</v>
+        <v>4.193713420004318</v>
       </c>
       <c r="FE4">
-        <v>0.3632463164947561</v>
+        <v>31.63903523104457</v>
       </c>
       <c r="FF4">
-        <v>0.3433269198137001</v>
+        <v>0.3361737703240746</v>
       </c>
       <c r="FG4">
-        <v>0.3333341436041681</v>
+        <v>0.3411660454045944</v>
       </c>
       <c r="FH4">
-        <v>0.3333341436041681</v>
+        <v>0.3891506248680551</v>
       </c>
       <c r="FI4">
-        <v>0.3333341436041681</v>
+        <v>0.3416999753073456</v>
       </c>
       <c r="FJ4">
-        <v>0.3991673723470106</v>
+        <v>0.3350899051808763</v>
       </c>
       <c r="FK4">
-        <v>0.333997198261838</v>
+        <v>0.3496248222175632</v>
       </c>
       <c r="FL4">
-        <v>0.356567830581256</v>
+        <v>1.86388989756301</v>
       </c>
       <c r="FM4">
-        <v>3.963090970936821</v>
+        <v>0.3404351852506812</v>
       </c>
       <c r="FN4">
-        <v>0.3333341436041681</v>
+        <v>0.3371323698142586</v>
       </c>
       <c r="FO4">
-        <v>0.3333341436041681</v>
+        <v>0.5015388453600186</v>
       </c>
       <c r="FP4">
-        <v>0.3337712988366172</v>
+        <v>0.3475033774463847</v>
       </c>
       <c r="FQ4">
-        <v>0.3781207706893331</v>
+        <v>0.3859613807099214</v>
       </c>
       <c r="FR4">
-        <v>74.33052713452376</v>
+        <v>0.3402290537911149</v>
       </c>
       <c r="FS4">
-        <v>0.3333341436041681</v>
+        <v>0.3372402353257715</v>
       </c>
       <c r="FT4">
-        <v>0.3768759804260511</v>
+        <v>2.435092289687211</v>
       </c>
       <c r="FU4">
-        <v>0.3349136669401404</v>
+        <v>0.3662504515453541</v>
       </c>
       <c r="FV4">
-        <v>0.3333341436041681</v>
+        <v>0.3440588894251602</v>
       </c>
       <c r="FW4">
-        <v>0.3410308392595085</v>
+        <v>0.3534139848515296</v>
       </c>
       <c r="FX4">
-        <v>0.3333341436041681</v>
+        <v>0.3877187740579426</v>
       </c>
       <c r="FY4">
-        <v>0.3333341436041681</v>
+        <v>0.336252020510111</v>
       </c>
       <c r="FZ4">
-        <v>0.3333341436041681</v>
+        <v>0.3632684222000476</v>
       </c>
       <c r="GA4">
-        <v>1.114625238210533</v>
+        <v>0.3834130044421897</v>
       </c>
       <c r="GB4">
-        <v>0.3333340988226143</v>
+        <v>0.3357005815652365</v>
       </c>
       <c r="GC4">
-        <v>0.3333341436041681</v>
+        <v>1.195409739088747</v>
       </c>
       <c r="GD4">
-        <v>463.2419277035572</v>
+        <v>2.466981207349995</v>
       </c>
       <c r="GE4">
-        <v>0.3350054694727139</v>
+        <v>1.490939115463605</v>
       </c>
       <c r="GF4">
-        <v>0.3334277815805189</v>
+        <v>14.84901989098989</v>
       </c>
       <c r="GG4">
-        <v>0.3333341436041681</v>
+        <v>0.3370046522671538</v>
       </c>
       <c r="GH4">
-        <v>21.56652608280038</v>
+        <v>0.3388797755350583</v>
       </c>
       <c r="GI4">
-        <v>0.3333341436041681</v>
+        <v>0.3427169798053826</v>
       </c>
       <c r="GJ4">
-        <v>221.6588017705609</v>
+        <v>0.339424262837397</v>
       </c>
       <c r="GK4">
-        <v>1262.476550158187</v>
+        <v>0.3795190129837354</v>
       </c>
       <c r="GL4">
-        <v>0.3894450631989184</v>
+        <v>10.72710011604997</v>
       </c>
       <c r="GM4">
-        <v>0.3362269035387001</v>
+        <v>0.346404730323554</v>
       </c>
       <c r="GN4">
-        <v>0.3337259415727125</v>
+        <v>1.175969015906785</v>
       </c>
       <c r="GO4">
-        <v>0.822047001142133</v>
+        <v>0.3472846826373587</v>
       </c>
       <c r="GP4">
-        <v>0.3333341436041681</v>
+        <v>1.241006019298945</v>
       </c>
       <c r="GQ4">
-        <v>0.3333340813376112</v>
+        <v>0.3641058282623414</v>
       </c>
       <c r="GR4">
-        <v>0.3333341436041681</v>
+        <v>2.981830768993466</v>
       </c>
       <c r="GS4">
-        <v>0.3336720993927428</v>
+        <v>4.690798714763598</v>
+      </c>
+      <c r="GT4">
+        <v>1.999582999427414</v>
+      </c>
+      <c r="GU4">
+        <v>4.211262273944294</v>
+      </c>
+      <c r="GV4">
+        <v>0.3551467515158391</v>
+      </c>
+      <c r="GW4">
+        <v>0.4257402097628786</v>
+      </c>
+      <c r="GX4">
+        <v>3.340890026865546</v>
+      </c>
+      <c r="GY4">
+        <v>3.894387727569256</v>
+      </c>
+      <c r="GZ4">
+        <v>0.7076700210445632</v>
+      </c>
+      <c r="HA4">
+        <v>0.3527431312993936</v>
+      </c>
+      <c r="HB4">
+        <v>3.002412664948582</v>
+      </c>
+      <c r="HC4">
+        <v>0.8527905516942005</v>
+      </c>
+      <c r="HD4">
+        <v>0.3359584194065389</v>
+      </c>
+      <c r="HE4">
+        <v>0.4257676373070314</v>
+      </c>
+      <c r="HF4">
+        <v>0.3352996633110744</v>
+      </c>
+      <c r="HG4">
+        <v>2.240907170770453</v>
+      </c>
+      <c r="HH4">
+        <v>0.3448620744715282</v>
+      </c>
+      <c r="HI4">
+        <v>9.88711396790254</v>
+      </c>
+      <c r="HJ4">
+        <v>26.5153496549722</v>
+      </c>
+      <c r="HK4">
+        <v>0.3352922552814301</v>
+      </c>
+      <c r="HL4">
+        <v>0.3714106616291226</v>
+      </c>
+      <c r="HM4">
+        <v>3.057909422825066</v>
+      </c>
+      <c r="HN4">
+        <v>19.11678621645863</v>
+      </c>
+      <c r="HO4">
+        <v>0.3355007541462847</v>
+      </c>
+      <c r="HP4">
+        <v>0.3990888864446436</v>
+      </c>
+      <c r="HQ4">
+        <v>1.898315387240986</v>
+      </c>
+      <c r="HR4">
+        <v>0.3698092710635607</v>
+      </c>
+      <c r="HS4">
+        <v>15.80786412551972</v>
+      </c>
+      <c r="HT4">
+        <v>4.368289044469195</v>
+      </c>
+      <c r="HU4">
+        <v>3.016092672466682</v>
+      </c>
+      <c r="HV4">
+        <v>0.501634259395459</v>
+      </c>
+      <c r="HW4">
+        <v>9.607729487934066</v>
+      </c>
+      <c r="HX4">
+        <v>0.9141836897583195</v>
+      </c>
+      <c r="HY4">
+        <v>0.3473957004146683</v>
+      </c>
+      <c r="HZ4">
+        <v>20.12083898280633</v>
+      </c>
+      <c r="IA4">
+        <v>90.80904685800373</v>
+      </c>
+      <c r="IB4">
+        <v>0.3368870217752407</v>
+      </c>
+      <c r="IC4">
+        <v>0.3783608839160861</v>
+      </c>
+      <c r="ID4">
+        <v>0.3618086770213085</v>
+      </c>
+      <c r="IE4">
+        <v>0.377322847977128</v>
+      </c>
+      <c r="IF4">
+        <v>0.3560859425058066</v>
+      </c>
+      <c r="IG4">
+        <v>0.3582193905785416</v>
+      </c>
+      <c r="IH4">
+        <v>2.070544638408186</v>
+      </c>
+      <c r="II4">
+        <v>1.021578124520779</v>
+      </c>
+      <c r="IJ4">
+        <v>5.007310072663878</v>
+      </c>
+      <c r="IK4">
+        <v>0.3546921626551172</v>
+      </c>
+      <c r="IL4">
+        <v>0.3763644274241884</v>
+      </c>
+      <c r="IM4">
+        <v>0.3379071052361647</v>
+      </c>
+      <c r="IN4">
+        <v>0.3878095236818178</v>
+      </c>
+      <c r="IO4">
+        <v>0.3411050307540493</v>
+      </c>
+      <c r="IP4">
+        <v>0.3365490996536183</v>
+      </c>
+      <c r="IQ4">
+        <v>0.9520764154546688</v>
+      </c>
+      <c r="IR4">
+        <v>0.3620325041226592</v>
+      </c>
+      <c r="IS4">
+        <v>0.342204025118361</v>
+      </c>
+      <c r="IT4">
+        <v>0.3414246972653533</v>
+      </c>
+      <c r="IU4">
+        <v>0.34347780177817</v>
+      </c>
+      <c r="IV4">
+        <v>3.406773071482131</v>
+      </c>
+      <c r="IW4">
+        <v>31.96702920147447</v>
+      </c>
+      <c r="IX4">
+        <v>0.3417921482387351</v>
+      </c>
+      <c r="IY4">
+        <v>0.334759734338327</v>
+      </c>
+      <c r="IZ4">
+        <v>21.49323445420999</v>
+      </c>
+      <c r="JA4">
+        <v>3.270230868022593</v>
+      </c>
+      <c r="JB4">
+        <v>0.3790068207358723</v>
+      </c>
+      <c r="JC4">
+        <v>0.3677176355697666</v>
+      </c>
+      <c r="JD4">
+        <v>0.3783662395527964</v>
+      </c>
+      <c r="JE4">
+        <v>0.3528930135436993</v>
+      </c>
+      <c r="JF4">
+        <v>1.085643794193661</v>
+      </c>
+      <c r="JG4">
+        <v>6.651892605099536</v>
+      </c>
+      <c r="JH4">
+        <v>0.3431447514330996</v>
+      </c>
+      <c r="JI4">
+        <v>0.334691611368224</v>
+      </c>
+      <c r="JJ4">
+        <v>0.3467848849204741</v>
+      </c>
+      <c r="JK4">
+        <v>8.787763567810055</v>
+      </c>
+      <c r="JL4">
+        <v>7.746340439709128</v>
+      </c>
+      <c r="JM4">
+        <v>5.650739697592074</v>
+      </c>
+      <c r="JN4">
+        <v>0.3517387449622855</v>
+      </c>
+      <c r="JO4">
+        <v>0.3709558141165534</v>
+      </c>
+      <c r="JP4">
+        <v>0.3427690154506067</v>
+      </c>
+      <c r="JQ4">
+        <v>1.862003771693081</v>
+      </c>
+      <c r="JR4">
+        <v>2.678998775013379</v>
+      </c>
+      <c r="JS4">
+        <v>0.6137246001920977</v>
+      </c>
+      <c r="JT4">
+        <v>0.3365787698406095</v>
+      </c>
+      <c r="JU4">
+        <v>0.4212595666545936</v>
+      </c>
+      <c r="JV4">
+        <v>0.3382995214359236</v>
+      </c>
+      <c r="JW4">
+        <v>0.371379320010481</v>
+      </c>
+      <c r="JX4">
+        <v>0.3400679755119253</v>
+      </c>
+      <c r="JY4">
+        <v>0.3386935897974134</v>
+      </c>
+      <c r="JZ4">
+        <v>0.3415617069474117</v>
+      </c>
+      <c r="KA4">
+        <v>0.3520388722974678</v>
+      </c>
+      <c r="KB4">
+        <v>1.151318923418668</v>
+      </c>
+      <c r="KC4">
+        <v>7.6050069995875</v>
+      </c>
+      <c r="KD4">
+        <v>2.169211188303912</v>
+      </c>
+      <c r="KE4">
+        <v>0.3398291505437165</v>
+      </c>
+      <c r="KF4">
+        <v>0.3857994452301609</v>
+      </c>
+      <c r="KG4">
+        <v>0.9800128690233405</v>
+      </c>
+      <c r="KH4">
+        <v>164.6087140406546</v>
+      </c>
+      <c r="KI4">
+        <v>15.84192527647897</v>
+      </c>
+      <c r="KJ4">
+        <v>2.231310573228499</v>
+      </c>
+      <c r="KK4">
+        <v>18.64450376741972</v>
+      </c>
+      <c r="KL4">
+        <v>63.93841724659575</v>
+      </c>
+      <c r="KM4">
+        <v>2.039337790049617</v>
+      </c>
+      <c r="KN4">
+        <v>69.49000727475274</v>
+      </c>
+      <c r="KO4">
+        <v>6.881077747251978</v>
+      </c>
+      <c r="KP4">
+        <v>3.451860258738852</v>
+      </c>
+      <c r="KQ4">
+        <v>4.524681003214686</v>
+      </c>
+      <c r="KR4">
+        <v>1.91679216873935</v>
+      </c>
+      <c r="KS4">
+        <v>2.154122642138756</v>
+      </c>
+      <c r="KT4">
+        <v>7.625113673511975</v>
+      </c>
+      <c r="KU4">
+        <v>3.362160246424134</v>
+      </c>
+      <c r="KV4">
+        <v>7.674057747376143</v>
+      </c>
+      <c r="KW4">
+        <v>0.3358239534337565</v>
+      </c>
+      <c r="KX4">
+        <v>10.71383302500166</v>
+      </c>
+      <c r="KY4">
+        <v>8.596325127607439</v>
+      </c>
+      <c r="KZ4">
+        <v>0.3530691519860351</v>
+      </c>
+      <c r="LA4">
+        <v>0.373295675120054</v>
+      </c>
+      <c r="LB4">
+        <v>1.972821756918718</v>
+      </c>
+      <c r="LC4">
+        <v>0.5211893542236065</v>
+      </c>
+      <c r="LD4">
+        <v>5.21106400649318</v>
+      </c>
+      <c r="LE4">
+        <v>0.5944076103820324</v>
+      </c>
+      <c r="LF4">
+        <v>0.3397749274200329</v>
+      </c>
+      <c r="LG4">
+        <v>0.4941112003761801</v>
+      </c>
+      <c r="LH4">
+        <v>0.3360506929933239</v>
+      </c>
+      <c r="LI4">
+        <v>4.435910989484173</v>
+      </c>
+      <c r="LJ4">
+        <v>0.3611693239066499</v>
+      </c>
+      <c r="LK4">
+        <v>0.356906701760961</v>
+      </c>
+      <c r="LL4">
+        <v>0.3495547972131203</v>
+      </c>
+      <c r="LM4">
+        <v>0.337997138880014</v>
+      </c>
+      <c r="LN4">
+        <v>0.3798378718715693</v>
+      </c>
+      <c r="LO4">
+        <v>0.3365801553807666</v>
+      </c>
+      <c r="LP4">
+        <v>0.3376764491397345</v>
+      </c>
+      <c r="LQ4">
+        <v>0.3621083750386471</v>
+      </c>
+      <c r="LR4">
+        <v>4.470373343405651</v>
+      </c>
+      <c r="LS4">
+        <v>0.3350177942656487</v>
+      </c>
+      <c r="LT4">
+        <v>0.3442542926392314</v>
+      </c>
+      <c r="LU4">
+        <v>0.3358648042791943</v>
+      </c>
+      <c r="LV4">
+        <v>0.3514198959100639</v>
+      </c>
+      <c r="LW4">
+        <v>10.21980499815614</v>
+      </c>
+      <c r="LX4">
+        <v>4.429909262637803</v>
+      </c>
+      <c r="LY4">
+        <v>1.077358525423342</v>
+      </c>
+      <c r="LZ4">
+        <v>4.291032672637799</v>
+      </c>
+      <c r="MA4">
+        <v>0.902022415052621</v>
+      </c>
+      <c r="MB4">
+        <v>0.3487976176448426</v>
+      </c>
+      <c r="MC4">
+        <v>0.3415223408607207</v>
+      </c>
+      <c r="MD4">
+        <v>3.23908661473769</v>
+      </c>
+      <c r="ME4">
+        <v>0.3625465127474771</v>
+      </c>
+      <c r="MF4">
+        <v>0.3365152066476455</v>
+      </c>
+      <c r="MG4">
+        <v>8.056056972933352</v>
+      </c>
+      <c r="MH4">
+        <v>0.3374928736641162</v>
+      </c>
+      <c r="MI4">
+        <v>2.868807633368006</v>
+      </c>
+      <c r="MJ4">
+        <v>0.3569377313796955</v>
+      </c>
+      <c r="MK4">
+        <v>3.910427287897003</v>
+      </c>
+      <c r="ML4">
+        <v>0.7789637930475808</v>
+      </c>
+      <c r="MM4">
+        <v>0.449728228839081</v>
+      </c>
+      <c r="MN4">
+        <v>0.6559479834511752</v>
+      </c>
+      <c r="MO4">
+        <v>0.3388029113841163</v>
+      </c>
+      <c r="MP4">
+        <v>0.3358926641548972</v>
+      </c>
+      <c r="MQ4">
+        <v>0.3685998448964485</v>
+      </c>
+      <c r="MR4">
+        <v>0.4040880331983288</v>
+      </c>
+      <c r="MS4">
+        <v>0.3927523111801854</v>
+      </c>
+      <c r="MT4">
+        <v>1.843909830951851</v>
+      </c>
+      <c r="MU4">
+        <v>0.341710941583554</v>
+      </c>
+      <c r="MV4">
+        <v>0.3407432503064994</v>
+      </c>
+      <c r="MW4">
+        <v>0.4846027617845912</v>
+      </c>
+      <c r="MX4">
+        <v>0.3895809799985652</v>
+      </c>
+      <c r="MY4">
+        <v>0.3450001710717361</v>
+      </c>
+      <c r="MZ4">
+        <v>0.3363656959645013</v>
+      </c>
+      <c r="NA4">
+        <v>0.3390168535802304</v>
+      </c>
+      <c r="NB4">
+        <v>0.3555264550227922</v>
+      </c>
+      <c r="NC4">
+        <v>0.3452654625670324</v>
+      </c>
+      <c r="ND4">
+        <v>0.3370889016472195</v>
+      </c>
+      <c r="NE4">
+        <v>0.3756566010142243</v>
+      </c>
+      <c r="NF4">
+        <v>3.364465778045401</v>
+      </c>
+      <c r="NG4">
+        <v>0.3400576103451951</v>
+      </c>
+      <c r="NH4">
+        <v>3.984793948979758</v>
+      </c>
+      <c r="NI4">
+        <v>0.3482231415885772</v>
+      </c>
+      <c r="NJ4">
+        <v>2.303121218495126</v>
+      </c>
+      <c r="NK4">
+        <v>0.3711591595007159</v>
+      </c>
+      <c r="NL4">
+        <v>0.3353171393499626</v>
+      </c>
+      <c r="NM4">
+        <v>0.4481068371076189</v>
+      </c>
+      <c r="NN4">
+        <v>2.448728434352304</v>
+      </c>
+      <c r="NO4">
+        <v>0.4072283747624959</v>
+      </c>
+      <c r="NP4">
+        <v>0.3545197315445228</v>
+      </c>
+      <c r="NQ4">
+        <v>1.050712051641886</v>
+      </c>
+      <c r="NR4">
+        <v>0.337289336803094</v>
+      </c>
+      <c r="NS4">
+        <v>14.25563280600755</v>
+      </c>
+      <c r="NT4">
+        <v>0.3376908433562535</v>
+      </c>
+      <c r="NU4">
+        <v>0.3532534276896609</v>
+      </c>
+      <c r="NV4">
+        <v>0.3535078372569245</v>
+      </c>
+      <c r="NW4">
+        <v>10.66709951945325</v>
+      </c>
+      <c r="NX4">
+        <v>4.79205459290547</v>
+      </c>
+      <c r="NY4">
+        <v>1.487826837928973</v>
+      </c>
+      <c r="NZ4">
+        <v>0.3715538791414428</v>
+      </c>
+      <c r="OA4">
+        <v>0.3384577556404494</v>
+      </c>
+      <c r="OB4">
+        <v>0.3653350352144258</v>
+      </c>
+      <c r="OC4">
+        <v>1.953963972162873</v>
+      </c>
+      <c r="OD4">
+        <v>0.3760504607213687</v>
+      </c>
+      <c r="OE4">
+        <v>0.4314260479430788</v>
+      </c>
+      <c r="OF4">
+        <v>1.18361646249614</v>
+      </c>
+      <c r="OG4">
+        <v>0.3415994368955644</v>
+      </c>
+      <c r="OH4">
+        <v>0.3505375121150698</v>
+      </c>
+      <c r="OI4">
+        <v>0.3385598181407116</v>
+      </c>
+      <c r="OJ4">
+        <v>0.3565144226794501</v>
+      </c>
+      <c r="OK4">
+        <v>0.6023476429263612</v>
       </c>
     </row>
   </sheetData>
